--- a/ParkByeongHyeon/전기안전관리법.xlsx
+++ b/ParkByeongHyeon/전기안전관리법.xlsx
@@ -14,165 +14,324 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t>키</t>
+  </si>
   <si>
     <t>조내용</t>
   </si>
   <si>
-    <t>제1조(목적) 이 법은 전기재해의 예방과 전기설비 안전관리에 필요한 사항을 규정함으로써 국민의 생명과 재산을 보호하고 공공의 안전을 확보함을 목적으로 한다.</t>
-  </si>
-  <si>
-    <t>제2조(정의) 이 법에서 사용하는 용어의 뜻은 다음과 같다."전기안전관리"란 국민의 생명과 재산을 보호하기 위하여 전기설비의 공사·유지·관리 및 운용에 필요한 조치를 하는 것을 말한다."전기재해"란 전기화재, 감전사고 등으로 인하여 사람의 생명과 재산의 피해가 발생하는 경우를 말한다."전기사업자"란 「전기사업법」 제2조제2호에 따른 전기사업자를 말한다."전기판매사업자"란 「전기사업법」 제2조제10호에 따른 전기판매사업자를 말한다."구역전기사업자"란 「전기사업법」 제2조제12호에 따른 구역전기사업자를 말한다."전기설비"란 「전기사업법」 제2조제16호에 따른 전기설비를 말한다.“전기사업용전기설비”란 「전기사업법」 제2조제17호에 따른 전기사업용전기설비를 말한다."일반용전기설비"란 「전기사업법」 제2조제18호에 따른 일반용전기설비를 말한다."자가용전기설비"란 「전기사업법」 제2조제19호에 따른 자가용전기설비를 말한다.</t>
-  </si>
-  <si>
-    <t>제3조(국가의 책무) 국가는 국민이 전기재해로부터 안전성을 확보할 수 있도록 전기안전관리에 관한 정책을 수립·시행하여야 한다.</t>
-  </si>
-  <si>
-    <t>제4조(다른 법률과의 관계) 전기안전관리에 대하여 다른 법률에 특별한 규정이 있는 경우를 제외하고는 이 법에서 정하는 바에 따른다.</t>
-  </si>
-  <si>
-    <t>제5조(전기안전관리 기본계획 수립 등)전기안전관리에 관한 중·장기 정책에 관한 사항전기설비의 안전관리제도 개선에 관한 사항전기재해 예방을 위한 교육·홍보 및 기술개발에 관한 사항전기설비의 안전관리를 위한 인력 양성에 관한 사항사회적 취약계층에 대한 전기안전 복지서비스에 관한 사항그 밖에 전기설비의 안전관리 수준 향상을 위하여 필요한 사항산업통상자원부장관은 전기재해 예방 등 체계적인 전기안전관리를 위하여 5년마다 전기안전관리에 관한 기본계획(이하 "기본계획"이라 한다)을 수립·시행하여야 한다.전기안전관리에 관한 중·장기 정책에 관한 사항전기설비의 안전관리제도 개선에 관한 사항전기재해 예방을 위한 교육·홍보 및 기술개발에 관한 사항전기설비의 안전관리를 위한 인력 양성에 관한 사항사회적 취약계층에 대한 전기안전 복지서비스에 관한 사항그 밖에 전기설비의 안전관리 수준 향상을 위하여 필요한 사항기본계획에는 다음 각 호의 사항이 포함되어야 한다.전기안전관리에 관한 중·장기 정책에 관한 사항전기설비의 안전관리제도 개선에 관한 사항전기재해 예방을 위한 교육·홍보 및 기술개발에 관한 사항전기설비의 안전관리를 위한 인력 양성에 관한 사항사회적 취약계층에 대한 전기안전 복지서비스에 관한 사항그 밖에 전기설비의 안전관리 수준 향상을 위하여 필요한 사항산업통상자원부장관은 기본계획을 수립하거나 변경하려면 미리 관계 중앙행정기관의 장과 협의한 후 「에너지법」 제9조에 따른 에너지위원회의 심의를 거쳐 이를 확정한다. 다만, 대통령령으로 정하는 경미한 사항을 변경하려는 경우에는 그러하지 아니하다.전기안전관리에 관한 중·장기 정책에 관한 사항전기설비의 안전관리제도 개선에 관한 사항전기재해 예방을 위한 교육·홍보 및 기술개발에 관한 사항전기설비의 안전관리를 위한 인력 양성에 관한 사항사회적 취약계층에 대한 전기안전 복지서비스에 관한 사항그 밖에 전기설비의 안전관리 수준 향상을 위하여 필요한 사항산업통상자원부장관은 기본계획의 수립·시행을 위하여 필요한 경우 관계 중앙행정기관의 장, 특별시장·광역시장·특별자치시장·도지사·특별자치도지사(이하 "시·도지사"라 한다) 또는 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관의 장에게 관련 자료의 제출이나 협력을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 이에 따라야 한다.전기안전관리에 관한 중·장기 정책에 관한 사항전기설비의 안전관리제도 개선에 관한 사항전기재해 예방을 위한 교육·홍보 및 기술개발에 관한 사항전기설비의 안전관리를 위한 인력 양성에 관한 사항사회적 취약계층에 대한 전기안전 복지서비스에 관한 사항그 밖에 전기설비의 안전관리 수준 향상을 위하여 필요한 사항산업통상자원부장관은 기본계획을 수립 또는 변경한 경우에는 관계 중앙행정기관의 장, 시·도지사 및 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관(전기안전관리에 관한 업무를 수행하는 공공기관에 한정한다)의 장에게 통보하고, 공고(인터넷 게재를 포함한다)하여야 한다.전기안전관리에 관한 중·장기 정책에 관한 사항전기설비의 안전관리제도 개선에 관한 사항전기재해 예방을 위한 교육·홍보 및 기술개발에 관한 사항전기설비의 안전관리를 위한 인력 양성에 관한 사항사회적 취약계층에 대한 전기안전 복지서비스에 관한 사항그 밖에 전기설비의 안전관리 수준 향상을 위하여 필요한 사항제1항부터 제5항까지의 규정에 따른 기본계획의 수립·변경 및 시행에 필요한 사항은 대통령령으로 정한다.전기안전관리에 관한 중·장기 정책에 관한 사항전기설비의 안전관리제도 개선에 관한 사항전기재해 예방을 위한 교육·홍보 및 기술개발에 관한 사항전기설비의 안전관리를 위한 인력 양성에 관한 사항사회적 취약계층에 대한 전기안전 복지서비스에 관한 사항그 밖에 전기설비의 안전관리 수준 향상을 위하여 필요한 사항</t>
-  </si>
-  <si>
-    <t>제6조(전기안전자문기구의 설치)산업통상자원부장관은 전기안전관리 정책을 원활하게 수립·추진하기 위하여 필요한 경우 전기안전관리와 관련된 전문기관·단체 등으로 구성된 자문기구(이하 "전기안전자문기구"라 한다)를 설치·운영할 수 있다.산업통상자원부장관은 전기안전자문기구가 원활하게 운영될 수 있도록 필요한 행정적·재정적 지원을 할 수 있다.전기안전자문기구의 구성 및 운영 등에 필요한 사항은 대통령령으로 정한다.</t>
-  </si>
-  <si>
-    <t>제7조(전기안전관리 관련 기술의 연구·개발)제30조에 따른 한국전기안전공사(이하 "안전공사"라 한다)국·공립 연구기관「고등교육법」에 따른 대학·산업대학·전문대학 및 기술대학「과학기술분야 정부출연연구기관 등의 설립·운영 및 육성에 관한 법률」에 따라 설립된 연구기관「기초연구진흥 및 기술개발지원에 관한 법률」 제14조의2제1항에 따라 인정받은 기업부설연구소「특정연구기관 육성법」 제2조에 따른 특정연구기관「민법」이나 다른 법률에 따라 설립된 전기안전 분야의 법인 연구기관 또는 법인 부설 연구소그 밖에 전기안전에 관한 기술 및 기준을 연구·개발하는 기관 또는 단체로서 산업통상자원부령으로 정하는 기관 또는 단체산업통상자원부장관은 전기안전관리 관련 기술의 연구·개발이 필요한 경우에는 다음 각 호의 어느 하나에 해당하는 기관이나 단체로 하여금 이를 수행하게 할 수 있다.제30조에 따른 한국전기안전공사(이하 "안전공사"라 한다)국·공립 연구기관「고등교육법」에 따른 대학·산업대학·전문대학 및 기술대학「과학기술분야 정부출연연구기관 등의 설립·운영 및 육성에 관한 법률」에 따라 설립된 연구기관「기초연구진흥 및 기술개발지원에 관한 법률」 제14조의2제1항에 따라 인정받은 기업부설연구소「특정연구기관 육성법」 제2조에 따른 특정연구기관「민법」이나 다른 법률에 따라 설립된 전기안전 분야의 법인 연구기관 또는 법인 부설 연구소그 밖에 전기안전에 관한 기술 및 기준을 연구·개발하는 기관 또는 단체로서 산업통상자원부령으로 정하는 기관 또는 단체산업통상자원부장관은 제1항에 따른 연구·개발에 필요한 재정적 지원을 할 수 있다.제30조에 따른 한국전기안전공사(이하 "안전공사"라 한다)국·공립 연구기관「고등교육법」에 따른 대학·산업대학·전문대학 및 기술대학「과학기술분야 정부출연연구기관 등의 설립·운영 및 육성에 관한 법률」에 따라 설립된 연구기관「기초연구진흥 및 기술개발지원에 관한 법률」 제14조의2제1항에 따라 인정받은 기업부설연구소「특정연구기관 육성법」 제2조에 따른 특정연구기관「민법」이나 다른 법률에 따라 설립된 전기안전 분야의 법인 연구기관 또는 법인 부설 연구소그 밖에 전기안전에 관한 기술 및 기준을 연구·개발하는 기관 또는 단체로서 산업통상자원부령으로 정하는 기관 또는 단체</t>
-  </si>
-  <si>
-    <t>제8조(자가용전기설비의 공사계획의 인가 또는 신고)자가용전기설비의 설치공사 또는 변경공사로서 산업통상자원부령으로 정하는 공사를 하려는 자는 그 공사계획에 대하여 산업통상자원부장관의 인가를 받아야 한다. 인가받은 사항을 변경하려는 경우에도 또한 같다.제1항에 따라 인가를 받아야 하는 공사 외의 자가용전기설비의 설치 또는 변경공사로서 산업통상자원부령으로 정하는 공사를 하려는 자는 공사를 시작하기 전에 시·도지사에게 신고하여야 한다. 신고한 사항을 변경하려는 경우에도 또한 같다.제2항 전단에도 불구하고 산업통상자원부령으로 정하는 저압(低壓)에 해당하는 자가용전기설비의 설치 또는 변경공사의 경우에는 제9조에 따른 사용전검사(使用前檢査) 신청으로 공사계획신고를 갈음할 수 있다.자가용전기설비의 소유자 또는 점유자는 전기설비가 사고·재해 또는 그 밖의 사유로 멸실·파손되거나 전시·사변 등 비상사태가 발생하여 부득이하게 공사를 하여야 하는 경우에는 제1항 및 제2항에도 불구하고 산업통상자원부령으로 정하는 바에 따라 공사를 시작한 후 지체 없이 그 사실을 산업통상자원부장관 또는 시·도지사에게 신고하여야 한다.제1항에 따른 인가 및 제2항·제4항에 따른 신고에 필요한 사항은 산업통상자원부령으로 정한다.</t>
-  </si>
-  <si>
-    <t>제9조(사용전검사) 제8조에 따라 자가용전기설비의 설치공사 또는 변경공사를 한 자는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관 또는 시·도지사가 실시하는 검사에 합격한 후에 이를 사용하여야 한다.</t>
-  </si>
-  <si>
-    <t>제10조(자가용전기설비의 임시사용)산업통상자원부장관 또는 시·도지사는 제9조에 따른 검사에 불합격한 경우에도 안전상 지장이 없고 자가용전기설비의 임시사용이 필요하다고 인정되는 경우에는 1년의 범위에서 사용 기간 및 방법을 정하여 그 설비를 임시로 사용하게 할 수 있다. 이 경우 산업통상자원부장관 또는 시·도지사는 그 사용 기간 및 방법을 정하여 통지를 하여야 한다.비상용 예비발전기가 완공되지 아니할 경우 등 제1항에 따른 전기설비 임시사용의 허용기준, 1년의 범위에서의 사용기간, 전기설비의 임시사용방법, 그 밖에 필요한 사항은 산업통상자원부령으로 정한다.</t>
-  </si>
-  <si>
-    <t>제11조(정기검사)전기사업자 및 자가용전기설비의 소유자 또는 점유자는 산업통상자원부령으로 정하는 전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관 또는 시·도지사로부터 정기적으로 검사를 받아야 한다.「전기사업법」 제2조제6호 및 제8호에 따른 송전사업자 및 배전사업자가 같은 법 제65조의2에 따라 자체 검사를 실시한 경우에는 제1항에 따른 검사를 받은 것으로 본다.</t>
-  </si>
-  <si>
-    <t>제12조(일반용전기설비의 점검)기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과산업통상자원부장관은 일반용전기설비가 「전기사업법」 제67조에 따른 기술기준(이하 "기술기준"이라 한다)에 적합한지 여부에 대하여 산업통상자원부령으로 정하는 바에 따라 그 전기설비의 사용 전과 사용 중에 정기적으로 안전공사 또는 전기판매사업자로 하여금 점검(전기판매사업자는 사용전점검 중 대통령령으로 정하는 전기설비의 경우에 한정한다. 이하 이 조에서 같다)하도록 하여야 한다. 다만, 주거용 시설물에 설치된 일반용전기설비를 정기적으로 점검(이하 "정기점검"이라 한다)하는 경우 그 소유자 또는 점유자로부터 점검의 승낙을 받을 수 없는 경우에는 그러하지 아니하다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과안전공사 및 전기판매사업자는 제1항 본문에 따른 점검 결과 일반용전기설비가 기술기준에 적합하지 아니하다고 인정되는 경우에는 지체 없이 다음 각 호의 사항을 그 소유자 또는 점유자에게 통지하여야 한다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과안전공사는 정기점검 결과 기술기준에 부합하지 아니한 전기설비 중 경미한 수리(「전기공사업법」 제3조제1항 단서에 따른 경미한 전기공사에 한정한다)가 필요한 경우로서 해당 전기설비의 소유자 또는 점유자의 요청이 있는 경우에는 직접 이를 수리할 수 있다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과안전공사 및 전기판매사업자는 제1항 또는 제2항에 따른 점검 또는 통지에 관한 업무를 수행하는 경우 산업통상자원부령으로 정하는 사항을 기록·보존하여야 한다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과안전공사는 제2항에 따라 통지한 사항의 조치 이행 여부를 점검한 결과 그 소유자 또는 점유자가 통지를 받고도 같은 항 제1호의 조치를 하지 아니한 경우에는 특별자치도지사·특별자치시장·시장·군수·구청장(구청장은 자치구의 구청장을 말한다. 이하 "시장·군수·구청장"이라 한다)에게 그 조치 불이행 사실을 통보하여야 한다. 이 경우 시장·군수·구청장은 그 소유자 또는 점유자에게 그 전기설비의 수리·개조 또는 이전에 관한 명령(이하 "개선명령"이라 한다)을 하여야 하되, 전기설비가 기술기준에 적합하지 아니한 사항이 중대하여 시장·군수·구청장의 개선명령을 기다릴 여유가 없다고 인정되는 경우로서 산업통상자원부령으로 정하는 경우에는 안전공사가 직접 개선명령을 한 후 이를 시장·군수·구청장에게 통보하여야 한다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과시장·군수·구청장은 일반용전기설비의 소유자 또는 점유자가 개선명령(안전공사가 직접 개선명령을 한 경우를 포함한다)을 이행하지 아니하여 전기로 인한 재해가 발생할 우려가 크다고 인정되는 경우에는 산업통상자원부령으로 정하는 바에 따라 전기판매사업자에게 그 소유자 또는 점유자에 대한 전기의 공급을 정지하여 줄 것을 요청하고 그 개선명령을 이행하지 아니한 내용을 즉시 안전공사에 통보하여야 한다. 이 경우 전기공급의 정지요청을 받은 전기판매사업자는 특별한 사유가 없으면 이에 따라야 한다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과안전공사는 제1항에 따른 점검에 필요한 자료를 산업통상자원부령으로 정하는 바에 따라 전기판매사업자에게 요청할 수 있다. 이 경우 자료요청을 받은 전기판매사업자는 특별한 사유가 없으면 이에 따라야 한다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과제1항에 따라 점검을 하는 자는 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과제1항에 따른 점검의 기준·방법과 그 밖에 필요한 사항은 산업통상자원부령으로 정한다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과구역전기사업자에 관하여는 제1항, 제2항, 제4항 및 제6항부터 제9항까지의 규정을 준용한다. 이 경우 "전기판매사업자"는 "구역전기사업자"로 본다.기술기준에 적합하도록 하기 위하여 필요한 조치의 내용제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과</t>
-  </si>
-  <si>
-    <t>제13조(여러 사람이 이용하는 시설 등에 대한 전기안전점검)「청소년활동 진흥법」에 따른 청소년수련시설「영화 및 비디오물의 진흥에 관한 법률」에 따른 비디오물시청제공업시설, 「게임산업진흥에 관한 법률」에 따른 게임제공업시설·인터넷컴퓨터게임시설제공업시설 및 「음악산업진흥에 관한 법률」에 따른 노래연습장업시설「사격 및 사격장 안전관리에 관한 법률」에 따른 사격장 중 대통령령으로 정하는 권총사격장「체육시설의 설치·이용에 관한 법률」에 따른 체육시설 중 대통령령으로 정하는 골프 연습장「의료법」에 따른 안마시술소 또는 안마원「식품위생법」에 따른 식품접객업 중 대통령령으로 정하는 단란주점영업 및 유흥주점영업의 시설「영유아보육법」에 따른 어린이집「유아교육법」에 따른 유치원그 밖에 전기설비에 대한 안전점검이 필요하다고 인정하는 시설로서 대통령령으로 정하는 시설다음 각 호의 시설을 운영하려거나 그 시설을 증축 또는 개축하려는 자는 그 시설을 운영하기 위하여 다음 각 호의 법령에서 규정된 허가신청·등록신청·인가신청·신고(그 시설의 소재지 변경에 따른 변경허가신청·변경등록신청·변경인가신청·변경신고를 포함한다) 또는 「건축법」에 따른 건축물의 사용승인신청을 하기 전에 그 시설에 설치된 전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 안전공사로부터 안전점검을 받아야 한다.「청소년활동 진흥법」에 따른 청소년수련시설「영화 및 비디오물의 진흥에 관한 법률」에 따른 비디오물시청제공업시설, 「게임산업진흥에 관한 법률」에 따른 게임제공업시설·인터넷컴퓨터게임시설제공업시설 및 「음악산업진흥에 관한 법률」에 따른 노래연습장업시설「사격 및 사격장 안전관리에 관한 법률」에 따른 사격장 중 대통령령으로 정하는 권총사격장「체육시설의 설치·이용에 관한 법률」에 따른 체육시설 중 대통령령으로 정하는 골프 연습장「의료법」에 따른 안마시술소 또는 안마원「식품위생법」에 따른 식품접객업 중 대통령령으로 정하는 단란주점영업 및 유흥주점영업의 시설「영유아보육법」에 따른 어린이집「유아교육법」에 따른 유치원그 밖에 전기설비에 대한 안전점검이 필요하다고 인정하는 시설로서 대통령령으로 정하는 시설「문화재보호법」에 따른 지정문화재 및 그 보호구역의 시설에 대하여 같은 법 제35조제1항제1호·제2호에 따른 현상변경(같은 법 제74조에 따라 준용되는 경우를 포함한다. 이하 같다)을 하려는 자는 그 현상변경이 끝난 후 제1항에 따라 산업통상자원부령으로 정하는 바에 따라 안전공사로부터 안전점검을 받아야 한다.「청소년활동 진흥법」에 따른 청소년수련시설「영화 및 비디오물의 진흥에 관한 법률」에 따른 비디오물시청제공업시설, 「게임산업진흥에 관한 법률」에 따른 게임제공업시설·인터넷컴퓨터게임시설제공업시설 및 「음악산업진흥에 관한 법률」에 따른 노래연습장업시설「사격 및 사격장 안전관리에 관한 법률」에 따른 사격장 중 대통령령으로 정하는 권총사격장「체육시설의 설치·이용에 관한 법률」에 따른 체육시설 중 대통령령으로 정하는 골프 연습장「의료법」에 따른 안마시술소 또는 안마원「식품위생법」에 따른 식품접객업 중 대통령령으로 정하는 단란주점영업 및 유흥주점영업의 시설「영유아보육법」에 따른 어린이집「유아교육법」에 따른 유치원그 밖에 전기설비에 대한 안전점검이 필요하다고 인정하는 시설로서 대통령령으로 정하는 시설안전공사는 제1항과 제2항에 따라 안전점검에 관한 업무를 수행하는 경우 산업통상자원부령으로 정하는 사항을 기록·보존하여야 한다.「청소년활동 진흥법」에 따른 청소년수련시설「영화 및 비디오물의 진흥에 관한 법률」에 따른 비디오물시청제공업시설, 「게임산업진흥에 관한 법률」에 따른 게임제공업시설·인터넷컴퓨터게임시설제공업시설 및 「음악산업진흥에 관한 법률」에 따른 노래연습장업시설「사격 및 사격장 안전관리에 관한 법률」에 따른 사격장 중 대통령령으로 정하는 권총사격장「체육시설의 설치·이용에 관한 법률」에 따른 체육시설 중 대통령령으로 정하는 골프 연습장「의료법」에 따른 안마시술소 또는 안마원「식품위생법」에 따른 식품접객업 중 대통령령으로 정하는 단란주점영업 및 유흥주점영업의 시설「영유아보육법」에 따른 어린이집「유아교육법」에 따른 유치원그 밖에 전기설비에 대한 안전점검이 필요하다고 인정하는 시설로서 대통령령으로 정하는 시설</t>
-  </si>
-  <si>
-    <t>제14조(공동주택 등의 안전점검)「주택법」 제2조제3호에 따른 공동주택의 세대「전통시장 및 상점가 육성을 위한 특별법」 제2조제1호에 따른 전통시장 점포산업통상자원부장관은 다음 각 호의 시설에 설치된 자가용전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 안전공사로 하여금 정기적으로 점검을 하도록 하여야 한다.「주택법」 제2조제3호에 따른 공동주택의 세대「전통시장 및 상점가 육성을 위한 특별법」 제2조제1호에 따른 전통시장 점포제1항에 따른 안전점검에 관하여는 제12조제2항부터 제9항까지의 규정을 준용한다.「주택법」 제2조제3호에 따른 공동주택의 세대「전통시장 및 상점가 육성을 위한 특별법」 제2조제1호에 따른 전통시장 점포</t>
-  </si>
-  <si>
-    <t>제15조(특별안전점검 및 응급조치)태풍·폭설 등의 재난으로 전기사고가 발생하거나 발생할 우려가 있는 시설장마철·동절기 등 계절적인 요인으로 인한 취약시기에 전기사고가 발생할 우려가 있는 시설국가 또는 지방자치단체가 화재예방을 위하여 관계 행정기관과 합동으로 안전점검을 하는 경우 그 대상 시설국가 또는 지방자치단체가 주관하는 행사 관련 시설산업통상자원부장관은 다음 각 호의 시설에 설치된 전기설비가 기술기준에 적합한지 여부에 대하여 안전공사로 하여금 특별안전점검을 하게 할 수 있다.태풍·폭설 등의 재난으로 전기사고가 발생하거나 발생할 우려가 있는 시설장마철·동절기 등 계절적인 요인으로 인한 취약시기에 전기사고가 발생할 우려가 있는 시설국가 또는 지방자치단체가 화재예방을 위하여 관계 행정기관과 합동으로 안전점검을 하는 경우 그 대상 시설국가 또는 지방자치단체가 주관하는 행사 관련 시설안전공사는 제1항에 따른 특별안전점검의 결과를 전기설비의 소유자 또는 점유자와 관계 행정기관에 통보하여야 한다.태풍·폭설 등의 재난으로 전기사고가 발생하거나 발생할 우려가 있는 시설장마철·동절기 등 계절적인 요인으로 인한 취약시기에 전기사고가 발생할 우려가 있는 시설국가 또는 지방자치단체가 화재예방을 위하여 관계 행정기관과 합동으로 안전점검을 하는 경우 그 대상 시설국가 또는 지방자치단체가 주관하는 행사 관련 시설산업통상자원부장관은 전기설비(전기사업용전기설비는 제외한다)의 소유자 또는 점유자가 전기사용상의 불편 해소나 안전 확보에 필요한 응급조치를 요청하는 경우에는 안전공사로 하여금 신속히 응급조치를 하게 할 수 있다.태풍·폭설 등의 재난으로 전기사고가 발생하거나 발생할 우려가 있는 시설장마철·동절기 등 계절적인 요인으로 인한 취약시기에 전기사고가 발생할 우려가 있는 시설국가 또는 지방자치단체가 화재예방을 위하여 관계 행정기관과 합동으로 안전점검을 하는 경우 그 대상 시설국가 또는 지방자치단체가 주관하는 행사 관련 시설제3항에 따른 응급조치의 대상, 범위 등에 관한 세부사항은 대통령령으로 정한다.태풍·폭설 등의 재난으로 전기사고가 발생하거나 발생할 우려가 있는 시설장마철·동절기 등 계절적인 요인으로 인한 취약시기에 전기사고가 발생할 우려가 있는 시설국가 또는 지방자치단체가 화재예방을 위하여 관계 행정기관과 합동으로 안전점검을 하는 경우 그 대상 시설국가 또는 지방자치단체가 주관하는 행사 관련 시설</t>
-  </si>
-  <si>
-    <t>제16조(전기재해 예방을 위한 안전조치)산업통상자원부장관은 전기재해 예방을 위하여 전기재해가 발생하거나 발생할 우려가 현저하여 긴급히 안전점검이 필요하다고 인정되는 시설에 대하여 소속 공무원 또는 안전공사에 산업통상자원부령으로 정하는 바에 따라 긴급점검을 하게 할 수 있다.산업통상자원부장관 또는 안전공사는 제1항에 따른 긴급점검 결과를 전기사업자 및 자가용·일반용전기설비 소유자 또는 점유자와 관계 행정기관에 통보하여야 한다.산업통상자원부장관은 제1항에 따른 긴급점검을 실시한 결과 전기재해 발생으로 인명 또는 재산피해의 우려가 현저하다고 인정되는 시설에 대하여는 산업통상자원부령으로 정하는 바에 따라 전기사업자 및 자가용·일반용전기설비의 소유자 또는 점유자에게 전기설비의 개수·철거·이전 또는 공사중지, 사용정지, 운용제한, 그 밖의 필요한 조치를 명할 수 있다.산업통상자원부장관은 제40조제3항에 따른 사고조사 결과가 인명 또는 재산피해의 우려가 현저할 경우에는 제3항에 따른 조치를 명할 수 있다.산업통상자원부장관은 제3항 및 제4항에 따른 명령으로 인하여 손실을 입은 자가 있는 경우에는 대통령령으로 정하는 바에 따라 손실을 보상할 수 있다.</t>
-  </si>
-  <si>
-    <t>제17조(안전등급 지정 등)제12조제2항에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 점검결과 안전등급의 변경이 필요하다고 인정되는 경우제20조에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 검사결과 등급조정이 필요하다고 인정되는 경우그 밖에 전기설비의 개보수 등 필요한 조치를 하거나 사고나 재해 등으로 전기설비의 성능이 저하되어 안전등급 조정이 필요한 것으로 산업통상자원부장관이 인정하는 경우산업통상자원부장관 또는 시·도지사는 제11조·제12조·제14조에 따른 검사 및 점검의 결과에 따라 전기설비의 안전등급을 지정하고 해당 전기설비의 소유자 및 점유자에게 통보하여야 한다.제12조제2항에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 점검결과 안전등급의 변경이 필요하다고 인정되는 경우제20조에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 검사결과 등급조정이 필요하다고 인정되는 경우그 밖에 전기설비의 개보수 등 필요한 조치를 하거나 사고나 재해 등으로 전기설비의 성능이 저하되어 안전등급 조정이 필요한 것으로 산업통상자원부장관이 인정하는 경우제1항에도 불구하고 산업통상자원부장관 또는 시·도지사는 다음 각 호의 어느 하나에 해당하는 경우에는 해당 전기설비의 안전등급을 변경할 수 있다. 이 경우 해당 전기설비의 소유자나 점유자에게 그 변경 사실을 통보하여야 한다.제12조제2항에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 점검결과 안전등급의 변경이 필요하다고 인정되는 경우제20조에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 검사결과 등급조정이 필요하다고 인정되는 경우그 밖에 전기설비의 개보수 등 필요한 조치를 하거나 사고나 재해 등으로 전기설비의 성능이 저하되어 안전등급 조정이 필요한 것으로 산업통상자원부장관이 인정하는 경우산업통상자원부장관 또는 시·도지사는 제1항에 따른 전기설비의 안전등급에 따라 해당 전기설비에 대한 제11조·제12조·제14조에 따른 검사 및 점검의 시기를 조정할 수 있다.제12조제2항에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 점검결과 안전등급의 변경이 필요하다고 인정되는 경우제20조에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 검사결과 등급조정이 필요하다고 인정되는 경우그 밖에 전기설비의 개보수 등 필요한 조치를 하거나 사고나 재해 등으로 전기설비의 성능이 저하되어 안전등급 조정이 필요한 것으로 산업통상자원부장관이 인정하는 경우제1항부터 제3항까지 규정에 따른 안전등급의 지정대상 및 기준·방법·절차 등에 필요한 사항은 산업통상자원부령으로 정한다.제12조제2항에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 점검결과 안전등급의 변경이 필요하다고 인정되는 경우제20조에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 검사결과 등급조정이 필요하다고 인정되는 경우그 밖에 전기설비의 개보수 등 필요한 조치를 하거나 사고나 재해 등으로 전기설비의 성능이 저하되어 안전등급 조정이 필요한 것으로 산업통상자원부장관이 인정하는 경우</t>
-  </si>
-  <si>
-    <t>제18조(검사·점검의 방법·절차 등) 산업통상자원부장관은 전기설비의 안전성 확보를 위하여 제9조, 제11조부터 제15조까지의 규정에 따른 검사 및 점검의 방법·절차 등에 대하여 기술기준 등에 따라 필요한 사항을 정하여 고시할 수 있다.</t>
-  </si>
-  <si>
-    <t>제19조(전기설비의 유지) 자가용전기설비 또는 일반용전기설비의 소유자나 점유자는 전기설비를 기술기준에 적합하게 유지하여야 한다.</t>
-  </si>
-  <si>
-    <t>제20조(적합명령) 산업통상자원부장관 또는 시·도지사는 다음 각 호의 어느 하나에 해당하게 된 경우에는 전기사업자, 자가용전기설비·일반용전기설비의 소유자 또는 점유자에게 전기설비의 수리·개조·이전 또는 사용정지나 사용제한을 명할 수 있다.제9조 또는 제11조에 따른 검사 결과 기술기준에 적합하지 아니한 경우제15조에 따른 특별안전점검 결과 기술기준에 적합하지 아니한 경우</t>
-  </si>
-  <si>
-    <t>제21조(정보의 공개)산업통상자원부장관 또는 시·도지사는 대통령령으로 정하는 바에 따라 전기설비의 검사 및 점검 결과 등 전기안전관리에 관한 정보를 「공공기관의 정보공개에 관한 법률」에 따라 제38조의 전기안전종합정보시스템에 공개할 수 있다.제1항에 따른 정보공개 대상, 방법, 절차에 필요한 사항은 대통령령으로 정한다.</t>
-  </si>
-  <si>
-    <t>제22조(전기안전관리자의 선임 등)전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자전기사업자나 자가용전기설비의 소유자 또는 점유자는 전기설비(휴지 중인 전기설비는 제외한다)의 공사·유지 및 운용에 관한 전기안전관리업무를 수행하게 하기 위하여 산업통상자원부령으로 정하는 바에 따라 「국가기술자격법」에 따른 전기·기계·토목 분야의 기술자격을 취득한 사람 중에서 각 분야별로 전기안전관리자를 선임하여야 한다.전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자제1항에도 불구하고 자가용전기설비의 소유자 또는 점유자는 전기안전관리에 관한 업무를 다음 각 호의 자에게 위탁할 수 있다. 이 경우 안전관리업무를 위탁받은 자는 제1항에 따른 분야별 전기안전관리자를 선임하여야 한다.전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자제1항에도 불구하고 산업통상자원부령으로 정하는 규모 이하의 전기설비(자가용전기설비와 「신에너지 및 재생에너지 개발·이용·보급 촉진법」 제2조에 따른 태양에너지 및 연료전지를 이용하여 전기를 생산하는 발전설비만 해당한다)의 소유자 또는 점유자는 다음 각 호의 어느 하나에 해당하는 자에게 산업통상자원부령으로 정하는 바에 따라 전기안전관리업무를 대행하게 할 수 있고, 전기안전관리업무를 대행하는 자는 전기안전관리자로 선임된 것으로 본다. 다만, 제1호에 따른 안전공사는 격지, 오지 등 산업통상자원부령으로 정하는 지역으로서 산업통상자원부장관이 정하는 전기설비에 한정하여 대행할 수 있다.전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자제1항부터 제3항까지의 규정에도 불구하고 전기안전관리자를 선임 또는 선임 의제(擬制)하는 것이 곤란하거나 적합하지 아니하다고 인정되는 지역 또는 전기설비에 대하여는 산업통상자원부령으로 정하는 바에 따라 전기안전관리자를 선임할 수 있다.전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자제1항부터 제4항까지의 규정에 따라 전기안전관리자를 선임한 자는 전기안전관리자가 여행·질병이나 그 밖의 사유로 일시적으로 그 직무를 수행할 수 없는 경우에는 그 기간 동안, 전기안전관리자를 해임한 경우에는 다른 전기안전관리자를 선임하기 전까지 산업통상자원부령으로 정하는 바에 따라 대행자를 각각 지정하여야 한다.전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자제1항부터 제4항까지의 규정에 따른 전기안전관리자의 세부기술자격 및 직무와 제3항에 따라 전기안전관리업무를 대행하는 자가 준수하여야 하는 전기안전관리 대행업무의 범위, 업무량 및 최소점검횟수에 관한 사항은 산업통상자원부령으로 정한다.전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자제3항에 따라 전기안전관리업무를 대행하게 하는 경우의 대가(代價)는 「엔지니어링산업 진흥법」 제31조에 따른 엔지니어링사업의 대가 기준 중에서 산업통상자원부령으로 정하는 방식에 따라 산정한다.전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자제1항에 따라 전기안전관리자를 선임한 자는 산업통상자원부령으로 정하는 바에 따라 전기안전관리에 필요한 장비를 보유하여야 한다.전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자안전공사자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자</t>
-  </si>
-  <si>
-    <t>제23조(전기안전관리자의 선임 및 해임신고 등)제22조제1항부터 제4항까지의 규정에 따라 전기안전관리자를 선임 또는 해임한 자는 산업통상자원부령으로 정하는 바에 따라 지체 없이 그 사실을 「전력기술관리법」 제18조제1항에 따른 전력기술인단체 중 산업통상자원부장관이 정하여 고시하는 단체(이하 "전력기술인단체"라 한다)에 신고하여야 한다. 신고한 사항 중 산업통상자원부령으로 정하는 사항이 변경된 경우에도 또한 같다.제1항에 따라 전기안전관리자의 선임신고를 한 자가 선임신고증명서의 발급을 요구한 경우에는 전력기술인단체는 산업통상자원부령으로 정하는 바에 따라 선임신고증명서를 발급하여야 한다.제1항에 따라 전기안전관리자의 해임신고를 한 자는 해임한 날부터 30일 이내에 다른 전기안전관리자를 선임하여야 한다.</t>
-  </si>
-  <si>
-    <t>제24조(전기안전관리자의 성실의무 등)전기안전관리자는 제22조제6항에 따른 직무를 성실히 수행하여야 한다.전기사업자 및 자가용전기설비의 소유자 또는 점유자(제22조제2항에 따라 전기안전관리업무를 위탁받은 자를 포함한다)와 그 종업원은 전기안전관리자의 전기안전관리에 관한 의견에 따라야 한다.전기안전관리자는 산업통상자원부령으로 정하는 바에 따라 전기안전관리에 관한 기록을 작성·보존 및 제출하여야 한다.전기안전관리자는 전기설비가 기술기준에 적합하지 아니하다고 인정되는 경우에는 지체 없이 해당 전기사업자 및 자가용전기설비의 소유자 또는 점유자에게 그 전기설비의 수리·개조·이전 등 필요한 조치를 요구하여야 한다.전기안전관리자로부터 제4항에 따른 조치요구를 받은 해당 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 지체 없이 이에 따라야 한다. 이 경우 이에 따른 조치요구를 이유로 전기안전관리자를 해임하거나 보수의 지급을 거부하는 등 불이익한 처우를 하여서는 아니 된다.</t>
-  </si>
-  <si>
-    <t>제25조(전기안전관리자의 교육 등)전기안전관리자: 전기설비의 유지 및 운용에 관한 안전관리교육시공관리책임자: 전기설비의 공사 및 시공관리에 관한 안전시공교육전기안전관리자 및 「전기공사업법」 제17조에 따른 시공관리책임자(이하 "시공관리책임자"라 한다)는 산업통상자원부장관이 실시하는 다음 각 호에 따라 교육(이하 "전기안전교육"이라 한다)을 받아야 한다.전기안전관리자: 전기설비의 유지 및 운용에 관한 안전관리교육시공관리책임자: 전기설비의 공사 및 시공관리에 관한 안전시공교육산업통상자원부장관은 필요한 경우 이론교육과 실습교육을 병행하여 전기안전교육을 실시할 수 있다.전기안전관리자: 전기설비의 유지 및 운용에 관한 안전관리교육시공관리책임자: 전기설비의 공사 및 시공관리에 관한 안전시공교육제1항에 따라 전기안전교육을 수료한 전기안전관리자 또는 시공관리책임자에 대하여 교육수료증을 발급할 수 있다.전기안전관리자: 전기설비의 유지 및 운용에 관한 안전관리교육시공관리책임자: 전기설비의 공사 및 시공관리에 관한 안전시공교육전기안전관리자를 선임한 자는 정당한 사유 없이 전기안전교육을 받지 아니한 전기안전관리자를 해임하여야 한다.전기안전관리자: 전기설비의 유지 및 운용에 관한 안전관리교육시공관리책임자: 전기설비의 공사 및 시공관리에 관한 안전시공교육「전기공사업법」 제2조제3호에 따른 공사업자는 정당한 사유 없이 안전시공교육을 받지 아니한 시공관리책임자의 지정을 취소하여야 한다.전기안전관리자: 전기설비의 유지 및 운용에 관한 안전관리교육시공관리책임자: 전기설비의 공사 및 시공관리에 관한 안전시공교육그 밖에 전기안전교육의 실시에 필요한 사항은 산업통상자원부령으로 정한다.전기안전관리자: 전기설비의 유지 및 운용에 관한 안전관리교육시공관리책임자: 전기설비의 공사 및 시공관리에 관한 안전시공교육</t>
-  </si>
-  <si>
-    <t>제26조(전기안전관리업무를 전문으로 하는 자 등의 등록)제22조제2항제1호에 따라 전기안전관리업무를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록제22조제2항제2호에 따라 시설물관리를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록제22조제3항제2호에 따라 전기안전관리대행사업자로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록제22조제3항제3호에 따라 전기 분야의 기술자격을 취득한 사람으로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록제22조제2항 및 제3항에 따라 전기안전관리업무를 위탁받거나 대행하려는 자는 다음 각 호의 구분에 따라 산업통상자원부장관 또는 시·도지사에게 등록을 하여야 한다.제22조제2항제1호에 따라 전기안전관리업무를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록제22조제2항제2호에 따라 시설물관리를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록제22조제3항제2호에 따라 전기안전관리대행사업자로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록제22조제3항제3호에 따라 전기 분야의 기술자격을 취득한 사람으로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록제1항에 따라 등록한 사항 중 산업통상자원부령으로 정하는 사항이 변경된 경우에는 변경 사유가 발생한 날부터 30일 이내에 변경등록을 하여야 한다.제22조제2항제1호에 따라 전기안전관리업무를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록제22조제2항제2호에 따라 시설물관리를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록제22조제3항제2호에 따라 전기안전관리대행사업자로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록제22조제3항제3호에 따라 전기 분야의 기술자격을 취득한 사람으로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록산업통상자원부장관 또는 시·도지사는 제1항 및 제2항에 따라 등록이나 변경등록을 받은 경우에는 등록신청자에게 등록증을 발급하여야 한다.제22조제2항제1호에 따라 전기안전관리업무를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록제22조제2항제2호에 따라 시설물관리를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록제22조제3항제2호에 따라 전기안전관리대행사업자로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록제22조제3항제3호에 따라 전기 분야의 기술자격을 취득한 사람으로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록</t>
-  </si>
-  <si>
-    <t>제27조(등록의 결격사유 및 취소 등)피성년후견인파산선고를 받고 복권되지 아니한 자이 법을 위반하여 징역 이상의 실형을 선고받고 그 집행이 종료(집행이 종료된 것으로 보는 경우를 포함한다)되거나 집행이 면제된 날부터 2년이 지나지 아니한 자이 법을 위반하여 징역 이상의 형의 집행유예를 선고받고 그 유예기간 중에 있는 자제2항에 따라 등록이 취소(제1호 또는 제2호의 결격사유에 해당하여 등록이 취소된 경우는 제외한다)된 날부터 2년이 지나지 아니한 자(법인인 경우 그 등록취소의 원인이 된 행위를 한 자와 대표자를 포함한다)대표자가 제1호부터 제5호까지의 어느 하나에 해당하는 법인거짓이나 그 밖의 부정한 방법으로 등록한 경우제22조제2항, 제22조제3항제2호 및 제3호에 따른 대통령령으로 정하는 요건에 미달한 날부터 1개월이 지난 경우제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달한 경우제26조제3항에 따라 발급받은 등록증을 다른 사람에게 빌려 준 경우제1항 각 호의 어느 하나에 해당하게 된 경우(제1항제6호에 해당하게 된 법인이 그 대표자를 6개월 이내에 결격사유가 없는 다른 대표자로 바꾸어 임명하는 경우는 제외한다)다음 각 호의 어느 하나에 해당하는 자는 제26조제1항에 따른 등록을 할 수 없다.피성년후견인파산선고를 받고 복권되지 아니한 자이 법을 위반하여 징역 이상의 실형을 선고받고 그 집행이 종료(집행이 종료된 것으로 보는 경우를 포함한다)되거나 집행이 면제된 날부터 2년이 지나지 아니한 자이 법을 위반하여 징역 이상의 형의 집행유예를 선고받고 그 유예기간 중에 있는 자제2항에 따라 등록이 취소(제1호 또는 제2호의 결격사유에 해당하여 등록이 취소된 경우는 제외한다)된 날부터 2년이 지나지 아니한 자(법인인 경우 그 등록취소의 원인이 된 행위를 한 자와 대표자를 포함한다)대표자가 제1호부터 제5호까지의 어느 하나에 해당하는 법인거짓이나 그 밖의 부정한 방법으로 등록한 경우제22조제2항, 제22조제3항제2호 및 제3호에 따른 대통령령으로 정하는 요건에 미달한 날부터 1개월이 지난 경우제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달한 경우제26조제3항에 따라 발급받은 등록증을 다른 사람에게 빌려 준 경우제1항 각 호의 어느 하나에 해당하게 된 경우(제1항제6호에 해당하게 된 법인이 그 대표자를 6개월 이내에 결격사유가 없는 다른 대표자로 바꾸어 임명하는 경우는 제외한다)산업통상자원부장관 또는 시·도지사는 제26조제1항에 따라 각각 등록한 자가 다음 각 호의 어느 하나에 해당하는 경우에는 그 등록을 취소하거나 산업통상자원부령으로 정하는 바에 따라 6개월 이내의 기간을 정하여 업무의 전부 또는 일부의 정지를 명할 수 있다. 다만, 제1호에 해당하는 경우에는 그 등록을 취소하여야 한다.피성년후견인파산선고를 받고 복권되지 아니한 자이 법을 위반하여 징역 이상의 실형을 선고받고 그 집행이 종료(집행이 종료된 것으로 보는 경우를 포함한다)되거나 집행이 면제된 날부터 2년이 지나지 아니한 자이 법을 위반하여 징역 이상의 형의 집행유예를 선고받고 그 유예기간 중에 있는 자제2항에 따라 등록이 취소(제1호 또는 제2호의 결격사유에 해당하여 등록이 취소된 경우는 제외한다)된 날부터 2년이 지나지 아니한 자(법인인 경우 그 등록취소의 원인이 된 행위를 한 자와 대표자를 포함한다)대표자가 제1호부터 제5호까지의 어느 하나에 해당하는 법인거짓이나 그 밖의 부정한 방법으로 등록한 경우제22조제2항, 제22조제3항제2호 및 제3호에 따른 대통령령으로 정하는 요건에 미달한 날부터 1개월이 지난 경우제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달한 경우제26조제3항에 따라 발급받은 등록증을 다른 사람에게 빌려 준 경우제1항 각 호의 어느 하나에 해당하게 된 경우(제1항제6호에 해당하게 된 법인이 그 대표자를 6개월 이내에 결격사유가 없는 다른 대표자로 바꾸어 임명하는 경우는 제외한다)</t>
-  </si>
-  <si>
-    <t>제28조(청문) 산업통상자원부장관 또는 시·도지사는 제27조제2항에 따라 등록을 취소하려면 청문을 하여야 한다.</t>
-  </si>
-  <si>
-    <t>제29조(전기안전관리업무에 대한 실태조사 등)산업통상자원부장관은 매년 1회 이상 전기안전관리업무에 대한 실태조사를 실시하여야 한다.산업통상자원부장관은 제1항에 따른 실태조사 결과 전기안전관리에 필요하다고 인정될 때에는 전기설비의 소유자 또는 점유자에게 전기설비의 안전관리에 관하여 개선을 권고하거나 시정을 명할 수 있다.시·도지사는 전기안전관리업무 수행에 관한 사항을 점검하기 위하여 필요하다고 인정하면 제22조제2항 또는 같은 조 제3항제2호 및 제3호에 따라 전기안전관리업무를 위탁받아 수행하거나 대행하는 자(이하 이 조에서 "대행자등"이라 한다)에 대하여 필요한 자료의 제출을 명하거나, 소속 공무원으로 하여금 대행자등의 사업장 또는 대행자등이 전기안전관리업무를 수행하는 전기설비의 설치장소에 출입하여 장부·서류나 그 밖의 자료 또는 물건을 조사하게 할 수 있다.산업통상자원부장관 또는 시·도지사는 제1항 및 제3항에 따른 조사를 하는 경우에는 조사 7일 전까지 조사 일시, 조사 이유 및 조사 내용을 포함한 조사계획을 조사대상자에게 알려야 한다. 다만, 긴급한 경우나 사전에 알리면 증거인멸 등으로 조사목적을 달성할 수 없다고 인정하는 경우에는 그러하지 아니하다.제1항 및 제3항에 따라 출입·조사하는 자는 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 하며, 조사 시 그 조사의 일시·목적 등을 기록한 서류를 관계인에게 내주어야 한다.제1항에 따른 실태조사의 대상, 시기 등에 관하여 필요한 사항은 대통령령으로 정한다.</t>
-  </si>
-  <si>
-    <t>제30조(한국전기안전공사의 설립)전기로 인한 재해를 예방하기 위하여 전기안전에 관한 조사·연구·기술개발 및 홍보업무와 전기설비에 대한 검사·점검업무를 수행하는 한국전기안전공사를 설립한다.안전공사는 법인으로 한다.안전공사는 주된 사업소의 소재지에서 설립등기를 함으로써 성립한다.</t>
-  </si>
-  <si>
-    <t>제31조(안전공사의 운영 등) 안전공사의 운영에 필요한 경비는 다음 각 호의 재원으로 충당한다.제42조제1항제1호에 따른 검사 또는 같은 항 제2호에 따른 점검을 받으려는 자가 내는 수수료「재난 및 안전관리 기본법」에 따른 재난관리책임기관이 재난예방을 위하여 부담하는 재난예방점검비용 등「전기사업법」 제48조에 따른 전력산업기반기금에서의 출연금차입금 및 그 밖의 수입</t>
-  </si>
-  <si>
-    <t>제32조(임원)안전공사의 임원은 사장 1명, 이사 8명 이내와 감사 1명으로 한다.사장은 안전공사를 대표하고, 그 사무를 총괄한다.</t>
-  </si>
-  <si>
-    <t>제33조(사업) 안전공사는 다음 각 호의 사업을 한다.전기안전에 관한 조사 및 연구전기안전에 관한 기술개발 및 보급전기안전에 관한 전문교육 및 정보의 제공전기안전에 관한 홍보전기설비에 대한 검사·점검 및 기술지원제40조제3항에 따른 전기사고의 원인·경위 등의 조사제41조제3항에 따른 전기재해에 관한 통계의 조사·작성·분석 및 관리전기안전에 관한 국제기술협력 및 기술·용역의 수출전기안전을 위하여 산업통상자원부장관 또는 시·도지사가 위탁하는 사업전기설비의 안전진단과 그 밖에 전기안전관리를 위하여 필요한 사업</t>
-  </si>
-  <si>
-    <t>제34조(다른 법률과의 관계) 안전공사에 관하여 이 법 및 「공공기관의 운영에 관한 법률」에 규정된 것을 제외하고는 「민법」 중 재단법인에 관한 규정을 준용한다.</t>
-  </si>
-  <si>
-    <t>제35조(감독) 산업통상자원부장관은 안전공사의 업무 중 다음 각 호의 어느 하나에 해당하는 사항에 관련되는 업무에 대하여 지도·감독한다.제33조에 따른 사업의 수행에 관한 사항토지·건물 등 안전공사의 주요 기본재산의 매각, 취득, 양도 또는 담보제공그 밖에 다른 법령에서 정하는 사항</t>
-  </si>
-  <si>
-    <t>제36조(유사명칭의 사용 금지) 이 법에 따른 안전공사가 아닌 자는 한국전기안전공사 또는 이와 유사한 명칭을 사용하지 못한다.</t>
-  </si>
-  <si>
-    <t>제37조(비밀 유지의 의무) 안전공사의 임직원이나 그 직에 있었던 사람은 직무와 관련하여 알게 된 비밀을 누설 또는 도용하거나 다른 사람이 이용하게 하여서는 아니 된다.</t>
-  </si>
-  <si>
-    <t>제38조(전기안전종합정보시스템의 구축·운영 등)산업통상자원부장관은 전기안전관리에 관한 정보를 체계적으로 관리하기 위하여 전기안전종합정보시스템을 구축·운영할 수 있다.산업통상자원부장관은 전기안전종합정보시스템을 구축·운영하기 위하여 필요한 경우에는 관계 중앙행정기관의 장, 시·도지사, 시장·군수·구청장, 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관의 장 및 전기 관련 협회의 장 등에게 필요한 자료의 제공을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 이에 따라야 한다.제1항에 따른 전기안전종합정보시스템의 구축·운영에 필요한 사항은 대통령령으로 정한다.</t>
-  </si>
-  <si>
-    <t>제39조(보고)산업통상자원부장관은 산업통상자원부령으로 정하는 바에 따라 전기설비의 검사·점검현황 등 전기안전에 관한 사항을 시·도지사, 시장·군수·구청장, 안전공사, 전기판매사업자 및 구역전기사업자로 하여금 보고하게 할 수 있다.시·도지사는 산업통상자원부령으로 정하는 바에 따라 전기안전관리자의 선임 및 해임에 관한 사항을 전력기술인단체로 하여금 보고하게 할 수 있다.</t>
-  </si>
-  <si>
-    <t>제40조(중대한 사고의 통보·조사)안전공사산업통상자원부령으로 정하는 기술인력 및 장비 등을 갖춘 자 중 산업통상자원부장관이 지정한 자전기사업자 및 자가용전기설비의 소유자 또는 점유자는 그가 운용하는 전기설비로 인하여 산업통상자원부령으로 정하는 중대한 사고가 발생한 경우에는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관에게 통보하여야 한다.안전공사산업통상자원부령으로 정하는 기술인력 및 장비 등을 갖춘 자 중 산업통상자원부장관이 지정한 자「전기사업법」 제35조에 따른 한국전력거래소는 전력계통의 운영과 관련하여 산업통상자원부령으로 정하는 중대한 사고가 발생한 경우에는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관에게 통보하여야 한다.안전공사산업통상자원부령으로 정하는 기술인력 및 장비 등을 갖춘 자 중 산업통상자원부장관이 지정한 자산업통상자원부장관은 전기사고의 재발방지를 위하여 필요하다고 인정하는 경우에는 다음 각 호의 자로 하여금 대통령령으로 정하는 전기사고의 원인·경위 등에 관한 조사를 하게 할 수 있다.안전공사산업통상자원부령으로 정하는 기술인력 및 장비 등을 갖춘 자 중 산업통상자원부장관이 지정한 자</t>
-  </si>
-  <si>
-    <t>제41조(전기재해통계의 작성)산업통상자원부장관은 전기안전관리 정책을 효과적으로 수립·시행하기 위하여 대통령령으로 정하는 바에 따라 전기재해에 관한 통계를 작성·관리할 수 있다.제1항에 따라 통계의 작성에 관하여 이 법에서 규정한 것 이외에는 「통계법」을 준용한다.산업통상자원부장관은 안전공사 또는 전문성을 갖춘 기관을 지정하여 제1항에 따른 통계의 조사·작성·분석 및 관리에 관한 업무의 전부 또는 일부를 수행하게 할 수 있다.</t>
-  </si>
-  <si>
-    <t>제42조(수수료 등)제9조 및 제11조에 따른 검사를 받으려는 자제13조에 따른 전기안전점검을 받으려는 자제23조제2항에 따른 전기안전관리자의 선임신고증명서를 발급받으려는 자제26조제2항에 따른 변경등록을 하려는 자(변경사항이 기술인력인 경우만 해당한다)제25조제1항제1호에 따라 전기안전관리자의 안전관리교육을 받으려는 사람제25조제1항제2호에 따라 시공관리책임자의 안전시공교육을 받으려는 사람다음 각 호의 어느 하나에 해당하는 자는 산업통상자원부령으로 정하는 바에 따라 수수료를 내야 한다.제9조 및 제11조에 따른 검사를 받으려는 자제13조에 따른 전기안전점검을 받으려는 자제23조제2항에 따른 전기안전관리자의 선임신고증명서를 발급받으려는 자제26조제2항에 따른 변경등록을 하려는 자(변경사항이 기술인력인 경우만 해당한다)제25조제1항제1호에 따라 전기안전관리자의 안전관리교육을 받으려는 사람제25조제1항제2호에 따라 시공관리책임자의 안전시공교육을 받으려는 사람다음 각 호의 어느 하나에 해당하는 사람은 산업통상자원부령으로 정하는 바에 따라 교육비를 내야 한다.제9조 및 제11조에 따른 검사를 받으려는 자제13조에 따른 전기안전점검을 받으려는 자제23조제2항에 따른 전기안전관리자의 선임신고증명서를 발급받으려는 자제26조제2항에 따른 변경등록을 하려는 자(변경사항이 기술인력인 경우만 해당한다)제25조제1항제1호에 따라 전기안전관리자의 안전관리교육을 받으려는 사람제25조제1항제2호에 따라 시공관리책임자의 안전시공교육을 받으려는 사람</t>
-  </si>
-  <si>
-    <t>제43조(권한의 위임·위탁)제8조제2항에 따른 자가용전기설비의 공사계획의 신고 및 변경신고의 접수제9조 및 제11조에 따른 전기설비의 검사제10조에 따른 자가용전기설비의 임시사용의 허용제38조에 따른 전기안전종합정보시스템의 구축·운영제25조제1항제1호에 따른 안전관리교육제25조제1항제2호에 따른 안전시공교육제26조제2항에 따른 전기안전관리업무를 전문으로 하는 자, 시설물관리를 전문으로 하는 자 및 전기안전관리대행사업자의 변경등록(변경사항이 기술인력인 경우만 해당한다)이 법에 따른 산업통상자원부장관의 권한은 그 일부를 대통령령으로 정하는 바에 따라 그 소속 기관 또는 시·도지사에게 위임할 수 있다.제8조제2항에 따른 자가용전기설비의 공사계획의 신고 및 변경신고의 접수제9조 및 제11조에 따른 전기설비의 검사제10조에 따른 자가용전기설비의 임시사용의 허용제38조에 따른 전기안전종합정보시스템의 구축·운영제25조제1항제1호에 따른 안전관리교육제25조제1항제2호에 따른 안전시공교육제26조제2항에 따른 전기안전관리업무를 전문으로 하는 자, 시설물관리를 전문으로 하는 자 및 전기안전관리대행사업자의 변경등록(변경사항이 기술인력인 경우만 해당한다)이 법에 따른 산업통상자원부장관 또는 시·도지사의 권한 중 다음 각 호의 업무의 전부 또는 일부를 대통령령으로 정하는 바에 따라 안전공사에 위탁할 수 있다.제8조제2항에 따른 자가용전기설비의 공사계획의 신고 및 변경신고의 접수제9조 및 제11조에 따른 전기설비의 검사제10조에 따른 자가용전기설비의 임시사용의 허용제38조에 따른 전기안전종합정보시스템의 구축·운영제25조제1항제1호에 따른 안전관리교육제25조제1항제2호에 따른 안전시공교육제26조제2항에 따른 전기안전관리업무를 전문으로 하는 자, 시설물관리를 전문으로 하는 자 및 전기안전관리대행사업자의 변경등록(변경사항이 기술인력인 경우만 해당한다)이 법에 따른 산업통상자원부장관 또는 시·도지사의 권한 중 다음 제1호 및 제3호의 업무는 대통령령으로 정하는 바에 따라 전력기술인단체에, 제2호의 업무는 대통령령으로 정하는 바에 따라 「전기공사업법」 제25조제1항에 따른 공사업자단체(이하 "공사업자단체"라 한다)에 위탁할 수 있다.제8조제2항에 따른 자가용전기설비의 공사계획의 신고 및 변경신고의 접수제9조 및 제11조에 따른 전기설비의 검사제10조에 따른 자가용전기설비의 임시사용의 허용제38조에 따른 전기안전종합정보시스템의 구축·운영제25조제1항제1호에 따른 안전관리교육제25조제1항제2호에 따른 안전시공교육제26조제2항에 따른 전기안전관리업무를 전문으로 하는 자, 시설물관리를 전문으로 하는 자 및 전기안전관리대행사업자의 변경등록(변경사항이 기술인력인 경우만 해당한다)</t>
-  </si>
-  <si>
-    <t>제44조(관리·감독)산업통상자원부장관 또는 시·도지사는 전력기술인단체 또는 공사업자단체의 수탁사무의 처리가 위법하거나 부당하다고 판단되는 경우 등 필요하다고 인정될 때에는 위탁사무에 관하여 필요한 지시를 하거나 시정을 명할 수 있다.산업통상자원부장관은 전력기술인단체 또는 공사업자단체가 제1항에 따른 명령을 위반한 경우 위탁을 취소하거나 6개월 이내의 기간을 정하여 업무정지를 명할 수 있다.산업통상자원부장관은 전력기술인단체 또는 공사업자단체가 제2항에 해당하는 경우로서 그 업무정지가 전기안전관리자 또는 시공관리책임자에게 심한 불편을 주거나 그 밖에 공공의 이익을 해칠 우려가 있는 경우에는 업무정지 명령을 갈음하여 5천만원 이하의 과징금을 부과할 수 있다.제2항에 따른 위반행위별 처분기준과 제3항에 따른 과징금의 부과기준은 산업통상자원부령으로 정한다.산업통상자원부장관은 제3항에 따른 과징금을 내야할 자가 납부기한까지 이를 내지 아니하면 국세 체납처분의 예에 따라 징수할 수 있다.</t>
-  </si>
-  <si>
-    <t>제45조(벌칙 적용에서 공무원 의제) 산업통상자원부장관 또는 시·도지사가 제43조제2항 및 제3항에 따라 위탁한 업무에 종사하는 안전공사, 단체의 임직원은 「형법」 제129조부터 제132조까지의 규정을 적용할 때에는 공무원으로 본다.</t>
-  </si>
-  <si>
-    <t>제46조(벌칙) 다음 각 호의 어느 하나에 해당하는 자는 2년 이하의 징역 또는 2천만원 이하의 벌금에 처하거나 이를 병과할 수 있다.제16조제3항 또는 제4항에 따른 명령을 정당한 사유 없이 위반한 자제37조를 위반하여 직무와 관련하여 알게 된 비밀을 누설 또는 도용하거나 다른 사람으로 하여금 이용하게 한 자</t>
-  </si>
-  <si>
-    <t>제47조(벌칙) 다음 각 호의 어느 하나에 해당하는 자는 1년 이하의 징역 또는 1천만원 이하의 벌금에 처한다.제8조제1항을 위반하여 전기설비의 설치공사 또는 변경공사를 한 자제22조제3항 각 호의 어느 하나에 해당하지 아니하는 자로서 전기안전관리업무를 대행한 자제26조제1항제1호부터 제3호까지의 규정에 따른 등록을 하지 아니하거나 같은 조 제2항에 따른 변경등록을 하지 아니하고 전기안전관리업무를 수행한 자거짓이나 그 밖의 부정한 방법으로 제26조제1항제1호부터 제3호까지의 규정에 따른 등록을 하거나 같은 조 제2항에 따른 변경등록을 한 자</t>
-  </si>
-  <si>
-    <t>제48조(벌칙) 제22조제1항부터 제4항까지의 규정을 위반하여 전기안전관리자를 선임하지 아니한 자는 500만원 이하의 벌금에 처한다.</t>
-  </si>
-  <si>
-    <t>제49조(벌칙) 다음 각 호의 어느 하나에 해당하는 자는 300만원 이하의 벌금에 처한다.제9조에 따른 검사에 합격하지 아니하고 전기설비를 사용한 자. 다만, 제10조에 따른 임시사용의 통지를 받은 경우는 제외한다.제20조(전기사업용전기설비 및 자가용전기설비의 소유자 또는 점유자만 해당한다)에 따른 명령을 위반한 자</t>
-  </si>
-  <si>
-    <t>제50조(벌칙) 제11조에 따른 검사를 거부·방해 또는 기피한 자는 100만원 이하의 벌금에 처한다.</t>
-  </si>
-  <si>
-    <t>제51조(양벌규정) 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제46조부터 제50조까지의 어느 하나에 해당하는 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 해당 조문의 벌금형을 과(科)한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리 하지 아니한 경우에는 그러하지 아니하다.</t>
-  </si>
-  <si>
-    <t>제52조(과태료)제12조제5항(제14조제2항에서 준용하는 경우를 포함한다)에 따른 시장·군수·구청장 또는 안전공사의 개선명령을 위반한 자제20조에 따라 일반용전기설비의 소유자 또는 점유자에게 내린 명령을 위반한 자제22조제5항을 위반하여 전기안전관리자의 대행자를 지정하지 아니한 자제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달하여 전기안전관리업무를 대행한 자제24조제3항에 따른 기록을 하지 아니하거나 거짓으로 기록한 자 또는 기록을 보존·제출하지 아니한 자제25조제3항을 위반하여 전기안전교육을 수료하지 않은 사람에게 교육수료증을 발급한 자제26조제2항의 변경등록 중 기술인력 변경등록을 거짓이나 부정한 방법으로 처리한 자제29조제3항에 따른 자료의 제출명령을 거부하거나, 장부·서류나 그 밖의 자료 또는 물건의 조사를 거부·방해 또는 기피한 자제36조를 위반하여 한국전기안전공사 또는 이와 유사한 명칭을 사용한 자제40조제1항 또는 제2항에 따른 통보를 하지 아니한 자제8조제2항을 위반하여 전기설비의 설치공사 또는 변경공사를 한 자제12조제1항 및 제14조제1항에 따른 점검(주거용 시설물에 설치된 전기설비에 대한 점검은 제외한다)을 거부·방해 또는 기피한 자제12조제4항(제14조제2항에서 준용하는 경우를 포함한다) 또는 제13조제3항에 따른 기록을 하지 아니하거나 거짓 기록을 한 자 또는 기록을 보존하지 아니한 자제22조제8항을 위반하여 안전관리에 필요한 장비를 보유하지 아니한 자제23조제1항에 따른 전기안전관리자의 선임 또는 해임 신고를 하지 아니하거나 거짓으로 선임 신고를 한 자제24조제4항을 위반하여 필요한 조치를 요구하지 아니한 전기안전관리자제24조제5항을 위반하여 전기안전관리자의 조치요구를 따르지 않거나, 조치요구를 이유로 전기안전관리자에게 불이익한 처우를 한 전기사업자 및 자가용전기설비의 소유자 또는 점유자제25조제1항제1호를 위반하여 안전관리교육을 받지 아니한 사람제25조제1항제2호를 위반하여 안전시공교육을 받지 아니한 사람제25조제4항을 위반하여 전기안전교육을 받지 아니한 사람을 해임하지 아니한 자제25조제5항을 위반하여 안전시공교육을 받지 아니한 사람의 시공관리책임자 지정을 취소하지 아니한 자제26조제1항제4호에 따른 등록을 하지 아니하거나 같은 조 제2항에 따른 변경등록을 하지 아니하고 전기안전관리업무를 수행한 자다음 각 호의 어느 하나에 해당하는 자에게는 300만원 이하의 과태료를 부과한다.제12조제5항(제14조제2항에서 준용하는 경우를 포함한다)에 따른 시장·군수·구청장 또는 안전공사의 개선명령을 위반한 자제20조에 따라 일반용전기설비의 소유자 또는 점유자에게 내린 명령을 위반한 자제22조제5항을 위반하여 전기안전관리자의 대행자를 지정하지 아니한 자제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달하여 전기안전관리업무를 대행한 자제24조제3항에 따른 기록을 하지 아니하거나 거짓으로 기록한 자 또는 기록을 보존·제출하지 아니한 자제25조제3항을 위반하여 전기안전교육을 수료하지 않은 사람에게 교육수료증을 발급한 자제26조제2항의 변경등록 중 기술인력 변경등록을 거짓이나 부정한 방법으로 처리한 자제29조제3항에 따른 자료의 제출명령을 거부하거나, 장부·서류나 그 밖의 자료 또는 물건의 조사를 거부·방해 또는 기피한 자제36조를 위반하여 한국전기안전공사 또는 이와 유사한 명칭을 사용한 자제40조제1항 또는 제2항에 따른 통보를 하지 아니한 자제8조제2항을 위반하여 전기설비의 설치공사 또는 변경공사를 한 자제12조제1항 및 제14조제1항에 따른 점검(주거용 시설물에 설치된 전기설비에 대한 점검은 제외한다)을 거부·방해 또는 기피한 자제12조제4항(제14조제2항에서 준용하는 경우를 포함한다) 또는 제13조제3항에 따른 기록을 하지 아니하거나 거짓 기록을 한 자 또는 기록을 보존하지 아니한 자제22조제8항을 위반하여 안전관리에 필요한 장비를 보유하지 아니한 자제23조제1항에 따른 전기안전관리자의 선임 또는 해임 신고를 하지 아니하거나 거짓으로 선임 신고를 한 자제24조제4항을 위반하여 필요한 조치를 요구하지 아니한 전기안전관리자제24조제5항을 위반하여 전기안전관리자의 조치요구를 따르지 않거나, 조치요구를 이유로 전기안전관리자에게 불이익한 처우를 한 전기사업자 및 자가용전기설비의 소유자 또는 점유자제25조제1항제1호를 위반하여 안전관리교육을 받지 아니한 사람제25조제1항제2호를 위반하여 안전시공교육을 받지 아니한 사람제25조제4항을 위반하여 전기안전교육을 받지 아니한 사람을 해임하지 아니한 자제25조제5항을 위반하여 안전시공교육을 받지 아니한 사람의 시공관리책임자 지정을 취소하지 아니한 자제26조제1항제4호에 따른 등록을 하지 아니하거나 같은 조 제2항에 따른 변경등록을 하지 아니하고 전기안전관리업무를 수행한 자다음 각 호의 어느 하나에 해당하는 자에게는 100만원 이하의 과태료를 부과한다.제12조제5항(제14조제2항에서 준용하는 경우를 포함한다)에 따른 시장·군수·구청장 또는 안전공사의 개선명령을 위반한 자제20조에 따라 일반용전기설비의 소유자 또는 점유자에게 내린 명령을 위반한 자제22조제5항을 위반하여 전기안전관리자의 대행자를 지정하지 아니한 자제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달하여 전기안전관리업무를 대행한 자제24조제3항에 따른 기록을 하지 아니하거나 거짓으로 기록한 자 또는 기록을 보존·제출하지 아니한 자제25조제3항을 위반하여 전기안전교육을 수료하지 않은 사람에게 교육수료증을 발급한 자제26조제2항의 변경등록 중 기술인력 변경등록을 거짓이나 부정한 방법으로 처리한 자제29조제3항에 따른 자료의 제출명령을 거부하거나, 장부·서류나 그 밖의 자료 또는 물건의 조사를 거부·방해 또는 기피한 자제36조를 위반하여 한국전기안전공사 또는 이와 유사한 명칭을 사용한 자제40조제1항 또는 제2항에 따른 통보를 하지 아니한 자제8조제2항을 위반하여 전기설비의 설치공사 또는 변경공사를 한 자제12조제1항 및 제14조제1항에 따른 점검(주거용 시설물에 설치된 전기설비에 대한 점검은 제외한다)을 거부·방해 또는 기피한 자제12조제4항(제14조제2항에서 준용하는 경우를 포함한다) 또는 제13조제3항에 따른 기록을 하지 아니하거나 거짓 기록을 한 자 또는 기록을 보존하지 아니한 자제22조제8항을 위반하여 안전관리에 필요한 장비를 보유하지 아니한 자제23조제1항에 따른 전기안전관리자의 선임 또는 해임 신고를 하지 아니하거나 거짓으로 선임 신고를 한 자제24조제4항을 위반하여 필요한 조치를 요구하지 아니한 전기안전관리자제24조제5항을 위반하여 전기안전관리자의 조치요구를 따르지 않거나, 조치요구를 이유로 전기안전관리자에게 불이익한 처우를 한 전기사업자 및 자가용전기설비의 소유자 또는 점유자제25조제1항제1호를 위반하여 안전관리교육을 받지 아니한 사람제25조제1항제2호를 위반하여 안전시공교육을 받지 아니한 사람제25조제4항을 위반하여 전기안전교육을 받지 아니한 사람을 해임하지 아니한 자제25조제5항을 위반하여 안전시공교육을 받지 아니한 사람의 시공관리책임자 지정을 취소하지 아니한 자제26조제1항제4호에 따른 등록을 하지 아니하거나 같은 조 제2항에 따른 변경등록을 하지 아니하고 전기안전관리업무를 수행한 자제1항 및 제2항에 따른 과태료는 대통령령으로 정하는 바에 따라 산업통상자원부장관, 시·도지사 또는 시장·군수·구청장이 부과·징수한다.제12조제5항(제14조제2항에서 준용하는 경우를 포함한다)에 따른 시장·군수·구청장 또는 안전공사의 개선명령을 위반한 자제20조에 따라 일반용전기설비의 소유자 또는 점유자에게 내린 명령을 위반한 자제22조제5항을 위반하여 전기안전관리자의 대행자를 지정하지 아니한 자제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달하여 전기안전관리업무를 대행한 자제24조제3항에 따른 기록을 하지 아니하거나 거짓으로 기록한 자 또는 기록을 보존·제출하지 아니한 자제25조제3항을 위반하여 전기안전교육을 수료하지 않은 사람에게 교육수료증을 발급한 자제26조제2항의 변경등록 중 기술인력 변경등록을 거짓이나 부정한 방법으로 처리한 자제29조제3항에 따른 자료의 제출명령을 거부하거나, 장부·서류나 그 밖의 자료 또는 물건의 조사를 거부·방해 또는 기피한 자제36조를 위반하여 한국전기안전공사 또는 이와 유사한 명칭을 사용한 자제40조제1항 또는 제2항에 따른 통보를 하지 아니한 자제8조제2항을 위반하여 전기설비의 설치공사 또는 변경공사를 한 자제12조제1항 및 제14조제1항에 따른 점검(주거용 시설물에 설치된 전기설비에 대한 점검은 제외한다)을 거부·방해 또는 기피한 자제12조제4항(제14조제2항에서 준용하는 경우를 포함한다) 또는 제13조제3항에 따른 기록을 하지 아니하거나 거짓 기록을 한 자 또는 기록을 보존하지 아니한 자제22조제8항을 위반하여 안전관리에 필요한 장비를 보유하지 아니한 자제23조제1항에 따른 전기안전관리자의 선임 또는 해임 신고를 하지 아니하거나 거짓으로 선임 신고를 한 자제24조제4항을 위반하여 필요한 조치를 요구하지 아니한 전기안전관리자제24조제5항을 위반하여 전기안전관리자의 조치요구를 따르지 않거나, 조치요구를 이유로 전기안전관리자에게 불이익한 처우를 한 전기사업자 및 자가용전기설비의 소유자 또는 점유자제25조제1항제1호를 위반하여 안전관리교육을 받지 아니한 사람제25조제1항제2호를 위반하여 안전시공교육을 받지 아니한 사람제25조제4항을 위반하여 전기안전교육을 받지 아니한 사람을 해임하지 아니한 자제25조제5항을 위반하여 안전시공교육을 받지 아니한 사람의 시공관리책임자 지정을 취소하지 아니한 자제26조제1항제4호에 따른 등록을 하지 아니하거나 같은 조 제2항에 따른 변경등록을 하지 아니하고 전기안전관리업무를 수행한 자</t>
+    <t>00010014</t>
+  </si>
+  <si>
+    <t>00020014</t>
+  </si>
+  <si>
+    <t>00030014</t>
+  </si>
+  <si>
+    <t>00040014</t>
+  </si>
+  <si>
+    <t>00050014</t>
+  </si>
+  <si>
+    <t>00060014</t>
+  </si>
+  <si>
+    <t>00070014</t>
+  </si>
+  <si>
+    <t>00080014</t>
+  </si>
+  <si>
+    <t>00090014</t>
+  </si>
+  <si>
+    <t>00100014</t>
+  </si>
+  <si>
+    <t>00110014</t>
+  </si>
+  <si>
+    <t>00120014</t>
+  </si>
+  <si>
+    <t>00130014</t>
+  </si>
+  <si>
+    <t>00140014</t>
+  </si>
+  <si>
+    <t>00150014</t>
+  </si>
+  <si>
+    <t>00160014</t>
+  </si>
+  <si>
+    <t>00170014</t>
+  </si>
+  <si>
+    <t>00180014</t>
+  </si>
+  <si>
+    <t>00190014</t>
+  </si>
+  <si>
+    <t>00200014</t>
+  </si>
+  <si>
+    <t>00210014</t>
+  </si>
+  <si>
+    <t>00220014</t>
+  </si>
+  <si>
+    <t>00230014</t>
+  </si>
+  <si>
+    <t>00240014</t>
+  </si>
+  <si>
+    <t>00250014</t>
+  </si>
+  <si>
+    <t>00260014</t>
+  </si>
+  <si>
+    <t>00270014</t>
+  </si>
+  <si>
+    <t>00280014</t>
+  </si>
+  <si>
+    <t>00290014</t>
+  </si>
+  <si>
+    <t>00300014</t>
+  </si>
+  <si>
+    <t>00310014</t>
+  </si>
+  <si>
+    <t>00320014</t>
+  </si>
+  <si>
+    <t>00330014</t>
+  </si>
+  <si>
+    <t>00340014</t>
+  </si>
+  <si>
+    <t>00350014</t>
+  </si>
+  <si>
+    <t>00360014</t>
+  </si>
+  <si>
+    <t>00370014</t>
+  </si>
+  <si>
+    <t>00380014</t>
+  </si>
+  <si>
+    <t>00390014</t>
+  </si>
+  <si>
+    <t>00400014</t>
+  </si>
+  <si>
+    <t>00410014</t>
+  </si>
+  <si>
+    <t>00420014</t>
+  </si>
+  <si>
+    <t>00430014</t>
+  </si>
+  <si>
+    <t>00440014</t>
+  </si>
+  <si>
+    <t>00450014</t>
+  </si>
+  <si>
+    <t>00460014</t>
+  </si>
+  <si>
+    <t>00470014</t>
+  </si>
+  <si>
+    <t>00480014</t>
+  </si>
+  <si>
+    <t>00490014</t>
+  </si>
+  <si>
+    <t>00500014</t>
+  </si>
+  <si>
+    <t>00510014</t>
+  </si>
+  <si>
+    <t>00520014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제1조(목적) 이 법은 전기재해의 예방과 전기설비 안전관리에 필요한 사항을 규정함으로써 국민의 생명과 재산을 보호하고 공공의 안전을 확보함을 목적으로 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제2조(정의) 이 법에서 사용하는 용어의 뜻은 다음과 같다. "전기안전관리"란 국민의 생명과 재산을 보호하기 위하여 전기설비의 공사·유지·관리 및 운용에 필요한 조치를 하는 것을 말한다. "전기재해"란 전기화재, 감전사고 등으로 인하여 사람의 생명과 재산의 피해가 발생하는 경우를 말한다. "전기사업자"란 「전기사업법」 제2조제2호에 따른 전기사업자를 말한다. "전기판매사업자"란 「전기사업법」 제2조제10호에 따른 전기판매사업자를 말한다. "구역전기사업자"란 「전기사업법」 제2조제12호에 따른 구역전기사업자를 말한다. "전기설비"란 「전기사업법」 제2조제16호에 따른 전기설비를 말한다. “전기사업용전기설비”란 「전기사업법」 제2조제17호에 따른 전기사업용전기설비를 말한다. "일반용전기설비"란 「전기사업법」 제2조제18호에 따른 일반용전기설비를 말한다. "자가용전기설비"란 「전기사업법」 제2조제19호에 따른 자가용전기설비를 말한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제3조(국가의 책무) 국가는 국민이 전기재해로부터 안전성을 확보할 수 있도록 전기안전관리에 관한 정책을 수립·시행하여야 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제4조(다른 법률과의 관계) 전기안전관리에 대하여 다른 법률에 특별한 규정이 있는 경우를 제외하고는 이 법에서 정하는 바에 따른다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제5조(전기안전관리 기본계획 수립 등) 산업통상자원부장관은 전기재해 예방 등 체계적인 전기안전관리를 위하여 5년마다 전기안전관리에 관한 기본계획(이하 "기본계획"이라 한다)을 수립·시행하여야 한다. 기본계획에는 다음 각 호의 사항이 포함되어야 한다. 산업통상자원부장관은 기본계획을 수립하거나 변경하려면 미리 관계 중앙행정기관의 장과 협의한 후 「에너지법」 제9조에 따른 에너지위원회의 심의를 거쳐 이를 확정한다. 다만, 대통령령으로 정하는 경미한 사항을 변경하려는 경우에는 그러하지 아니하다. 산업통상자원부장관은 기본계획의 수립·시행을 위하여 필요한 경우 관계 중앙행정기관의 장, 특별시장·광역시장·특별자치시장·도지사·특별자치도지사(이하 "시·도지사"라 한다) 또는 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관의 장에게 관련 자료의 제출이나 협력을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 이에 따라야 한다. 산업통상자원부장관은 기본계획을 수립 또는 변경한 경우에는 관계 중앙행정기관의 장, 시·도지사 및 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관(전기안전관리에 관한 업무를 수행하는 공공기관에 한정한다)의 장에게 통보하고, 공고(인터넷 게재를 포함한다)하여야 한다. 제1항부터 제5항까지의 규정에 따른 기본계획의 수립·변경 및 시행에 필요한 사항은 대통령령으로 정한다. 전기안전관리에 관한 중·장기 정책에 관한 사항 전기설비의 안전관리제도 개선에 관한 사항 전기재해 예방을 위한 교육·홍보 및 기술개발에 관한 사항 전기설비의 안전관리를 위한 인력 양성에 관한 사항 사회적 취약계층에 대한 전기안전 복지서비스에 관한 사항 그 밖에 전기설비의 안전관리 수준 향상을 위하여 필요한 사항 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제6조(전기안전자문기구의 설치) 산업통상자원부장관은 전기안전관리 정책을 원활하게 수립·추진하기 위하여 필요한 경우 전기안전관리와 관련된 전문기관·단체 등으로 구성된 자문기구(이하 "전기안전자문기구"라 한다)를 설치·운영할 수 있다. 산업통상자원부장관은 전기안전자문기구가 원활하게 운영될 수 있도록 필요한 행정적·재정적 지원을 할 수 있다. 전기안전자문기구의 구성 및 운영 등에 필요한 사항은 대통령령으로 정한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제7조(전기안전관리 관련 기술의 연구·개발) 산업통상자원부장관은 전기안전관리 관련 기술의 연구·개발이 필요한 경우에는 다음 각 호의 어느 하나에 해당하는 기관이나 단체로 하여금 이를 수행하게 할 수 있다. 산업통상자원부장관은 제1항에 따른 연구·개발에 필요한 재정적 지원을 할 수 있다. 제30조에 따른 한국전기안전공사(이하 "안전공사"라 한다) 국·공립 연구기관 「고등교육법」에 따른 대학·산업대학·전문대학 및 기술대학 「과학기술분야 정부출연연구기관 등의 설립·운영 및 육성에 관한 법률」에 따라 설립된 연구기관 「기초연구진흥 및 기술개발지원에 관한 법률」 제14조의2제1항에 따라 인정받은 기업부설연구소 「특정연구기관 육성법」 제2조에 따른 특정연구기관 「민법」이나 다른 법률에 따라 설립된 전기안전 분야의 법인 연구기관 또는 법인 부설 연구소 그 밖에 전기안전에 관한 기술 및 기준을 연구·개발하는 기관 또는 단체로서 산업통상자원부령으로 정하는 기관 또는 단체 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제8조(자가용전기설비의 공사계획의 인가 또는 신고) 자가용전기설비의 설치공사 또는 변경공사로서 산업통상자원부령으로 정하는 공사를 하려는 자는 그 공사계획에 대하여 산업통상자원부장관의 인가를 받아야 한다. 인가받은 사항을 변경하려는 경우에도 또한 같다. 제1항에 따라 인가를 받아야 하는 공사 외의 자가용전기설비의 설치 또는 변경공사로서 산업통상자원부령으로 정하는 공사를 하려는 자는 공사를 시작하기 전에 시·도지사에게 신고하여야 한다. 신고한 사항을 변경하려는 경우에도 또한 같다. 제2항 전단에도 불구하고 산업통상자원부령으로 정하는 저압(低壓)에 해당하는 자가용전기설비의 설치 또는 변경공사의 경우에는 제9조에 따른 사용전검사(使用前檢査) 신청으로 공사계획신고를 갈음할 수 있다. 자가용전기설비의 소유자 또는 점유자는 전기설비가 사고·재해 또는 그 밖의 사유로 멸실·파손되거나 전시·사변 등 비상사태가 발생하여 부득이하게 공사를 하여야 하는 경우에는 제1항 및 제2항에도 불구하고 산업통상자원부령으로 정하는 바에 따라 공사를 시작한 후 지체 없이 그 사실을 산업통상자원부장관 또는 시·도지사에게 신고하여야 한다. 제1항에 따른 인가 및 제2항·제4항에 따른 신고에 필요한 사항은 산업통상자원부령으로 정한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제9조(사용전검사) 제8조에 따라 자가용전기설비의 설치공사 또는 변경공사를 한 자는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관 또는 시·도지사가 실시하는 검사에 합격한 후에 이를 사용하여야 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제10조(자가용전기설비의 임시사용) 산업통상자원부장관 또는 시·도지사는 제9조에 따른 검사에 불합격한 경우에도 안전상 지장이 없고 자가용전기설비의 임시사용이 필요하다고 인정되는 경우에는 1년의 범위에서 사용 기간 및 방법을 정하여 그 설비를 임시로 사용하게 할 수 있다. 이 경우 산업통상자원부장관 또는 시·도지사는 그 사용 기간 및 방법을 정하여 통지를 하여야 한다. 비상용 예비발전기가 완공되지 아니할 경우 등 제1항에 따른 전기설비 임시사용의 허용기준, 1년의 범위에서의 사용기간, 전기설비의 임시사용방법, 그 밖에 필요한 사항은 산업통상자원부령으로 정한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제11조(정기검사) 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 산업통상자원부령으로 정하는 전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관 또는 시·도지사로부터 정기적으로 검사를 받아야 한다. 「전기사업법」 제2조제6호 및 제8호에 따른 송전사업자 및 배전사업자가 같은 법 제65조의2에 따라 자체 검사를 실시한 경우에는 제1항에 따른 검사를 받은 것으로 본다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제12조(일반용전기설비의 점검) 산업통상자원부장관은 일반용전기설비가 「전기사업법」 제67조에 따른 기술기준(이하 "기술기준"이라 한다)에 적합한지 여부에 대하여 산업통상자원부령으로 정하는 바에 따라 그 전기설비의 사용 전과 사용 중에 정기적으로 안전공사 또는 전기판매사업자로 하여금 점검(전기판매사업자는 사용전점검 중 대통령령으로 정하는 전기설비의 경우에 한정한다. 이하 이 조에서 같다)하도록 하여야 한다. 다만, 주거용 시설물에 설치된 일반용전기설비를 정기적으로 점검(이하 "정기점검"이라 한다)하는 경우 그 소유자 또는 점유자로부터 점검의 승낙을 받을 수 없는 경우에는 그러하지 아니하다. 안전공사 및 전기판매사업자는 제1항 본문에 따른 점검 결과 일반용전기설비가 기술기준에 적합하지 아니하다고 인정되는 경우에는 지체 없이 다음 각 호의 사항을 그 소유자 또는 점유자에게 통지하여야 한다. 안전공사는 정기점검 결과 기술기준에 부합하지 아니한 전기설비 중 경미한 수리(「전기공사업법」 제3조제1항 단서에 따른 경미한 전기공사에 한정한다)가 필요한 경우로서 해당 전기설비의 소유자 또는 점유자의 요청이 있는 경우에는 직접 이를 수리할 수 있다. 안전공사 및 전기판매사업자는 제1항 또는 제2항에 따른 점검 또는 통지에 관한 업무를 수행하는 경우 산업통상자원부령으로 정하는 사항을 기록·보존하여야 한다. 안전공사는 제2항에 따라 통지한 사항의 조치 이행 여부를 점검한 결과 그 소유자 또는 점유자가 통지를 받고도 같은 항 제1호의 조치를 하지 아니한 경우에는 특별자치도지사·특별자치시장·시장·군수·구청장(구청장은 자치구의 구청장을 말한다. 이하 "시장·군수·구청장"이라 한다)에게 그 조치 불이행 사실을 통보하여야 한다. 이 경우 시장·군수·구청장은 그 소유자 또는 점유자에게 그 전기설비의 수리·개조 또는 이전에 관한 명령(이하 "개선명령"이라 한다)을 하여야 하되, 전기설비가 기술기준에 적합하지 아니한 사항이 중대하여 시장·군수·구청장의 개선명령을 기다릴 여유가 없다고 인정되는 경우로서 산업통상자원부령으로 정하는 경우에는 안전공사가 직접 개선명령을 한 후 이를 시장·군수·구청장에게 통보하여야 한다. 시장·군수·구청장은 일반용전기설비의 소유자 또는 점유자가 개선명령(안전공사가 직접 개선명령을 한 경우를 포함한다)을 이행하지 아니하여 전기로 인한 재해가 발생할 우려가 크다고 인정되는 경우에는 산업통상자원부령으로 정하는 바에 따라 전기판매사업자에게 그 소유자 또는 점유자에 대한 전기의 공급을 정지하여 줄 것을 요청하고 그 개선명령을 이행하지 아니한 내용을 즉시 안전공사에 통보하여야 한다. 이 경우 전기공급의 정지요청을 받은 전기판매사업자는 특별한 사유가 없으면 이에 따라야 한다. 안전공사는 제1항에 따른 점검에 필요한 자료를 산업통상자원부령으로 정하는 바에 따라 전기판매사업자에게 요청할 수 있다. 이 경우 자료요청을 받은 전기판매사업자는 특별한 사유가 없으면 이에 따라야 한다. 제1항에 따라 점검을 하는 자는 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다. 제1항에 따른 점검의 기준·방법과 그 밖에 필요한 사항은 산업통상자원부령으로 정한다. 구역전기사업자에 관하여는 제1항, 제2항, 제4항 및 제6항부터 제9항까지의 규정을 준용한다. 이 경우 "전기판매사업자"는 "구역전기사업자"로 본다. 기술기준에 적합하도록 하기 위하여 필요한 조치의 내용 제1호에 따른 조치를 하지 아니하는 경우에 발생할 수 있는 결과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제13조(여러 사람이 이용하는 시설 등에 대한 전기안전점검) 다음 각 호의 시설을 운영하려거나 그 시설을 증축 또는 개축하려는 자는 그 시설을 운영하기 위하여 다음 각 호의 법령에서 규정된 허가신청·등록신청·인가신청·신고(그 시설의 소재지 변경에 따른 변경허가신청·변경등록신청·변경인가신청·변경신고를 포함한다) 또는 「건축법」에 따른 건축물의 사용승인신청을 하기 전에 그 시설에 설치된 전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 안전공사로부터 안전점검을 받아야 한다. 「문화재보호법」에 따른 지정문화재 및 그 보호구역의 시설에 대하여 같은 법 제35조제1항제1호·제2호에 따른 현상변경(같은 법 제74조에 따라 준용되는 경우를 포함한다. 이하 같다)을 하려는 자는 그 현상변경이 끝난 후 제1항에 따라 산업통상자원부령으로 정하는 바에 따라 안전공사로부터 안전점검을 받아야 한다. 안전공사는 제1항과 제2항에 따라 안전점검에 관한 업무를 수행하는 경우 산업통상자원부령으로 정하는 사항을 기록·보존하여야 한다. 「청소년활동 진흥법」에 따른 청소년수련시설 「영화 및 비디오물의 진흥에 관한 법률」에 따른 비디오물시청제공업시설, 「게임산업진흥에 관한 법률」에 따른 게임제공업시설·인터넷컴퓨터게임시설제공업시설 및 「음악산업진흥에 관한 법률」에 따른 노래연습장업시설 「사격 및 사격장 안전관리에 관한 법률」에 따른 사격장 중 대통령령으로 정하는 권총사격장 「체육시설의 설치·이용에 관한 법률」에 따른 체육시설 중 대통령령으로 정하는 골프 연습장 「의료법」에 따른 안마시술소 또는 안마원 「식품위생법」에 따른 식품접객업 중 대통령령으로 정하는 단란주점영업 및 유흥주점영업의 시설 「영유아보육법」에 따른 어린이집 「유아교육법」에 따른 유치원 그 밖에 전기설비에 대한 안전점검이 필요하다고 인정하는 시설로서 대통령령으로 정하는 시설 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제14조(공동주택 등의 안전점검) 산업통상자원부장관은 다음 각 호의 시설에 설치된 자가용전기설비에 대하여 산업통상자원부령으로 정하는 바에 따라 안전공사로 하여금 정기적으로 점검을 하도록 하여야 한다. 제1항에 따른 안전점검에 관하여는 제12조제2항부터 제9항까지의 규정을 준용한다. 「주택법」 제2조제3호에 따른 공동주택의 세대 「전통시장 및 상점가 육성을 위한 특별법」 제2조제1호에 따른 전통시장 점포 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제15조(특별안전점검 및 응급조치) 산업통상자원부장관은 다음 각 호의 시설에 설치된 전기설비가 기술기준에 적합한지 여부에 대하여 안전공사로 하여금 특별안전점검을 하게 할 수 있다. 안전공사는 제1항에 따른 특별안전점검의 결과를 전기설비의 소유자 또는 점유자와 관계 행정기관에 통보하여야 한다. 산업통상자원부장관은 전기설비(전기사업용전기설비는 제외한다)의 소유자 또는 점유자가 전기사용상의 불편 해소나 안전 확보에 필요한 응급조치를 요청하는 경우에는 안전공사로 하여금 신속히 응급조치를 하게 할 수 있다. 제3항에 따른 응급조치의 대상, 범위 등에 관한 세부사항은 대통령령으로 정한다. 태풍·폭설 등의 재난으로 전기사고가 발생하거나 발생할 우려가 있는 시설 장마철·동절기 등 계절적인 요인으로 인한 취약시기에 전기사고가 발생할 우려가 있는 시설 국가 또는 지방자치단체가 화재예방을 위하여 관계 행정기관과 합동으로 안전점검을 하는 경우 그 대상 시설 국가 또는 지방자치단체가 주관하는 행사 관련 시설 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제16조(전기재해 예방을 위한 안전조치) 산업통상자원부장관은 전기재해 예방을 위하여 전기재해가 발생하거나 발생할 우려가 현저하여 긴급히 안전점검이 필요하다고 인정되는 시설에 대하여 소속 공무원 또는 안전공사에 산업통상자원부령으로 정하는 바에 따라 긴급점검을 하게 할 수 있다. 산업통상자원부장관 또는 안전공사는 제1항에 따른 긴급점검 결과를 전기사업자 및 자가용·일반용전기설비 소유자 또는 점유자와 관계 행정기관에 통보하여야 한다. 산업통상자원부장관은 제1항에 따른 긴급점검을 실시한 결과 전기재해 발생으로 인명 또는 재산피해의 우려가 현저하다고 인정되는 시설에 대하여는 산업통상자원부령으로 정하는 바에 따라 전기사업자 및 자가용·일반용전기설비의 소유자 또는 점유자에게 전기설비의 개수·철거·이전 또는 공사중지, 사용정지, 운용제한, 그 밖의 필요한 조치를 명할 수 있다. 산업통상자원부장관은 제40조제3항에 따른 사고조사 결과가 인명 또는 재산피해의 우려가 현저할 경우에는 제3항에 따른 조치를 명할 수 있다. 산업통상자원부장관은 제3항 및 제4항에 따른 명령으로 인하여 손실을 입은 자가 있는 경우에는 대통령령으로 정하는 바에 따라 손실을 보상할 수 있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제17조(안전등급 지정 등) 산업통상자원부장관 또는 시·도지사는 제11조·제12조·제14조에 따른 검사 및 점검의 결과에 따라 전기설비의 안전등급을 지정하고 해당 전기설비의 소유자 및 점유자에게 통보하여야 한다. 제1항에도 불구하고 산업통상자원부장관 또는 시·도지사는 다음 각 호의 어느 하나에 해당하는 경우에는 해당 전기설비의 안전등급을 변경할 수 있다. 이 경우 해당 전기설비의 소유자나 점유자에게 그 변경 사실을 통보하여야 한다. 산업통상자원부장관 또는 시·도지사는 제1항에 따른 전기설비의 안전등급에 따라 해당 전기설비에 대한 제11조·제12조·제14조에 따른 검사 및 점검의 시기를 조정할 수 있다. 제1항부터 제3항까지 규정에 따른 안전등급의 지정대상 및 기준·방법·절차 등에 필요한 사항은 산업통상자원부령으로 정한다. 제12조제2항에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 점검결과 안전등급의 변경이 필요하다고 인정되는 경우 제20조에 따라 전기설비의 수리·개조 등 필요한 조치를 하여 검사결과 등급조정이 필요하다고 인정되는 경우 그 밖에 전기설비의 개보수 등 필요한 조치를 하거나 사고나 재해 등으로 전기설비의 성능이 저하되어 안전등급 조정이 필요한 것으로 산업통상자원부장관이 인정하는 경우 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제18조(검사·점검의 방법·절차 등) 산업통상자원부장관은 전기설비의 안전성 확보를 위하여 제9조, 제11조부터 제15조까지의 규정에 따른 검사 및 점검의 방법·절차 등에 대하여 기술기준 등에 따라 필요한 사항을 정하여 고시할 수 있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제19조(전기설비의 유지) 자가용전기설비 또는 일반용전기설비의 소유자나 점유자는 전기설비를 기술기준에 적합하게 유지하여야 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제20조(적합명령) 산업통상자원부장관 또는 시·도지사는 다음 각 호의 어느 하나에 해당하게 된 경우에는 전기사업자, 자가용전기설비·일반용전기설비의 소유자 또는 점유자에게 전기설비의 수리·개조·이전 또는 사용정지나 사용제한을 명할 수 있다. 제9조 또는 제11조에 따른 검사 결과 기술기준에 적합하지 아니한 경우 제15조에 따른 특별안전점검 결과 기술기준에 적합하지 아니한 경우 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제21조(정보의 공개) 산업통상자원부장관 또는 시·도지사는 대통령령으로 정하는 바에 따라 전기설비의 검사 및 점검 결과 등 전기안전관리에 관한 정보를 「공공기관의 정보공개에 관한 법률」에 따라 제38조의 전기안전종합정보시스템에 공개할 수 있다. 제1항에 따른 정보공개 대상, 방법, 절차에 필요한 사항은 대통령령으로 정한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제22조(전기안전관리자의 선임 등) 전기사업자나 자가용전기설비의 소유자 또는 점유자는 전기설비(휴지 중인 전기설비는 제외한다)의 공사·유지 및 운용에 관한 전기안전관리업무를 수행하게 하기 위하여 산업통상자원부령으로 정하는 바에 따라 「국가기술자격법」에 따른 전기·기계·토목 분야의 기술자격을 취득한 사람 중에서 각 분야별로 전기안전관리자를 선임하여야 한다. 제1항에도 불구하고 자가용전기설비의 소유자 또는 점유자는 전기안전관리에 관한 업무를 다음 각 호의 자에게 위탁할 수 있다. 이 경우 안전관리업무를 위탁받은 자는 제1항에 따른 분야별 전기안전관리자를 선임하여야 한다. 제1항에도 불구하고 산업통상자원부령으로 정하는 규모 이하의 전기설비(자가용전기설비와 「신에너지 및 재생에너지 개발·이용·보급 촉진법」 제2조에 따른 태양에너지 및 연료전지를 이용하여 전기를 생산하는 발전설비만 해당한다)의 소유자 또는 점유자는 다음 각 호의 어느 하나에 해당하는 자에게 산업통상자원부령으로 정하는 바에 따라 전기안전관리업무를 대행하게 할 수 있고, 전기안전관리업무를 대행하는 자는 전기안전관리자로 선임된 것으로 본다. 다만, 제1호에 따른 안전공사는 격지, 오지 등 산업통상자원부령으로 정하는 지역으로서 산업통상자원부장관이 정하는 전기설비에 한정하여 대행할 수 있다. 제1항부터 제3항까지의 규정에도 불구하고 전기안전관리자를 선임 또는 선임 의제(擬制)하는 것이 곤란하거나 적합하지 아니하다고 인정되는 지역 또는 전기설비에 대하여는 산업통상자원부령으로 정하는 바에 따라 전기안전관리자를 선임할 수 있다. 제1항부터 제4항까지의 규정에 따라 전기안전관리자를 선임한 자는 전기안전관리자가 여행·질병이나 그 밖의 사유로 일시적으로 그 직무를 수행할 수 없는 경우에는 그 기간 동안, 전기안전관리자를 해임한 경우에는 다른 전기안전관리자를 선임하기 전까지 산업통상자원부령으로 정하는 바에 따라 대행자를 각각 지정하여야 한다. 제1항부터 제4항까지의 규정에 따른 전기안전관리자의 세부기술자격 및 직무와 제3항에 따라 전기안전관리업무를 대행하는 자가 준수하여야 하는 전기안전관리 대행업무의 범위, 업무량 및 최소점검횟수에 관한 사항은 산업통상자원부령으로 정한다. 제3항에 따라 전기안전관리업무를 대행하게 하는 경우의 대가(代價)는 「엔지니어링산업 진흥법」 제31조에 따른 엔지니어링사업의 대가 기준 중에서 산업통상자원부령으로 정하는 방식에 따라 산정한다. 제1항에 따라 전기안전관리자를 선임한 자는 산업통상자원부령으로 정하는 바에 따라 전기안전관리에 필요한 장비를 보유하여야 한다. 전기안전관리업무를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자 시설물관리를 전문으로 하는 자로서 자본금, 기술인력, 장비 등 대통령령으로 정하는 요건을 갖춘 자 안전공사 자본금, 기술인력 등 대통령령으로 정하는 요건을 갖춘 전기안전관리대행사업자 전기 분야의 기술자격을 취득한 사람으로서 대통령령으로 정하는 장비를 보유하고 있는 자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제23조(전기안전관리자의 선임 및 해임신고 등) 제22조제1항부터 제4항까지의 규정에 따라 전기안전관리자를 선임 또는 해임한 자는 산업통상자원부령으로 정하는 바에 따라 지체 없이 그 사실을 「전력기술관리법」 제18조제1항에 따른 전력기술인단체 중 산업통상자원부장관이 정하여 고시하는 단체(이하 "전력기술인단체"라 한다)에 신고하여야 한다. 신고한 사항 중 산업통상자원부령으로 정하는 사항이 변경된 경우에도 또한 같다. 제1항에 따라 전기안전관리자의 선임신고를 한 자가 선임신고증명서의 발급을 요구한 경우에는 전력기술인단체는 산업통상자원부령으로 정하는 바에 따라 선임신고증명서를 발급하여야 한다. 제1항에 따라 전기안전관리자의 해임신고를 한 자는 해임한 날부터 30일 이내에 다른 전기안전관리자를 선임하여야 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제24조(전기안전관리자의 성실의무 등) 전기안전관리자는 제22조제6항에 따른 직무를 성실히 수행하여야 한다. 전기사업자 및 자가용전기설비의 소유자 또는 점유자(제22조제2항에 따라 전기안전관리업무를 위탁받은 자를 포함한다)와 그 종업원은 전기안전관리자의 전기안전관리에 관한 의견에 따라야 한다. 전기안전관리자는 산업통상자원부령으로 정하는 바에 따라 전기안전관리에 관한 기록을 작성·보존 및 제출하여야 한다. 전기안전관리자는 전기설비가 기술기준에 적합하지 아니하다고 인정되는 경우에는 지체 없이 해당 전기사업자 및 자가용전기설비의 소유자 또는 점유자에게 그 전기설비의 수리·개조·이전 등 필요한 조치를 요구하여야 한다. 전기안전관리자로부터 제4항에 따른 조치요구를 받은 해당 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 지체 없이 이에 따라야 한다. 이 경우 이에 따른 조치요구를 이유로 전기안전관리자를 해임하거나 보수의 지급을 거부하는 등 불이익한 처우를 하여서는 아니 된다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제25조(전기안전관리자의 교육 등) 전기안전관리자 및 「전기공사업법」 제17조에 따른 시공관리책임자(이하 "시공관리책임자"라 한다)는 산업통상자원부장관이 실시하는 다음 각 호에 따라 교육(이하 "전기안전교육"이라 한다)을 받아야 한다. 산업통상자원부장관은 필요한 경우 이론교육과 실습교육을 병행하여 전기안전교육을 실시할 수 있다. 제1항에 따라 전기안전교육을 수료한 전기안전관리자 또는 시공관리책임자에 대하여 교육수료증을 발급할 수 있다. 전기안전관리자를 선임한 자는 정당한 사유 없이 전기안전교육을 받지 아니한 전기안전관리자를 해임하여야 한다. 「전기공사업법」 제2조제3호에 따른 공사업자는 정당한 사유 없이 안전시공교육을 받지 아니한 시공관리책임자의 지정을 취소하여야 한다. 그 밖에 전기안전교육의 실시에 필요한 사항은 산업통상자원부령으로 정한다. 전기안전관리자: 전기설비의 유지 및 운용에 관한 안전관리교육 시공관리책임자: 전기설비의 공사 및 시공관리에 관한 안전시공교육 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제26조(전기안전관리업무를 전문으로 하는 자 등의 등록) 제22조제2항 및 제3항에 따라 전기안전관리업무를 위탁받거나 대행하려는 자는 다음 각 호의 구분에 따라 산업통상자원부장관 또는 시·도지사에게 등록을 하여야 한다. 제1항에 따라 등록한 사항 중 산업통상자원부령으로 정하는 사항이 변경된 경우에는 변경 사유가 발생한 날부터 30일 이내에 변경등록을 하여야 한다. 산업통상자원부장관 또는 시·도지사는 제1항 및 제2항에 따라 등록이나 변경등록을 받은 경우에는 등록신청자에게 등록증을 발급하여야 한다. 제22조제2항제1호에 따라 전기안전관리업무를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록 제22조제2항제2호에 따라 시설물관리를 전문으로 하는 자로서 전기안전관리업무를 위탁받으려는 자: 산업통상자원부장관에게 등록 제22조제3항제2호에 따라 전기안전관리대행사업자로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록 제22조제3항제3호에 따라 전기 분야의 기술자격을 취득한 사람으로서 안전관리업무를 대행하려는 자: 시·도지사에게 등록 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제27조(등록의 결격사유 및 취소 등) 다음 각 호의 어느 하나에 해당하는 자는 제26조제1항에 따른 등록을 할 수 없다. 산업통상자원부장관 또는 시·도지사는 제26조제1항에 따라 각각 등록한 자가 다음 각 호의 어느 하나에 해당하는 경우에는 그 등록을 취소하거나 산업통상자원부령으로 정하는 바에 따라 6개월 이내의 기간을 정하여 업무의 전부 또는 일부의 정지를 명할 수 있다. 다만, 제1호에 해당하는 경우에는 그 등록을 취소하여야 한다. 피성년후견인 파산선고를 받고 복권되지 아니한 자 이 법을 위반하여 징역 이상의 실형을 선고받고 그 집행이 종료(집행이 종료된 것으로 보는 경우를 포함한다)되거나 집행이 면제된 날부터 2년이 지나지 아니한 자 이 법을 위반하여 징역 이상의 형의 집행유예를 선고받고 그 유예기간 중에 있는 자 제2항에 따라 등록이 취소(제1호 또는 제2호의 결격사유에 해당하여 등록이 취소된 경우는 제외한다)된 날부터 2년이 지나지 아니한 자(법인인 경우 그 등록취소의 원인이 된 행위를 한 자와 대표자를 포함한다) 대표자가 제1호부터 제5호까지의 어느 하나에 해당하는 법인 거짓이나 그 밖의 부정한 방법으로 등록한 경우 제22조제2항, 제22조제3항제2호 및 제3호에 따른 대통령령으로 정하는 요건에 미달한 날부터 1개월이 지난 경우 제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달한 경우 제26조제3항에 따라 발급받은 등록증을 다른 사람에게 빌려 준 경우 제1항 각 호의 어느 하나에 해당하게 된 경우(제1항제6호에 해당하게 된 법인이 그 대표자를 6개월 이내에 결격사유가 없는 다른 대표자로 바꾸어 임명하는 경우는 제외한다) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제28조(청문) 산업통상자원부장관 또는 시·도지사는 제27조제2항에 따라 등록을 취소하려면 청문을 하여야 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제29조(전기안전관리업무에 대한 실태조사 등) 산업통상자원부장관은 매년 1회 이상 전기안전관리업무에 대한 실태조사를 실시하여야 한다. 산업통상자원부장관은 제1항에 따른 실태조사 결과 전기안전관리에 필요하다고 인정될 때에는 전기설비의 소유자 또는 점유자에게 전기설비의 안전관리에 관하여 개선을 권고하거나 시정을 명할 수 있다. 시·도지사는 전기안전관리업무 수행에 관한 사항을 점검하기 위하여 필요하다고 인정하면 제22조제2항 또는 같은 조 제3항제2호 및 제3호에 따라 전기안전관리업무를 위탁받아 수행하거나 대행하는 자(이하 이 조에서 "대행자등"이라 한다)에 대하여 필요한 자료의 제출을 명하거나, 소속 공무원으로 하여금 대행자등의 사업장 또는 대행자등이 전기안전관리업무를 수행하는 전기설비의 설치장소에 출입하여 장부·서류나 그 밖의 자료 또는 물건을 조사하게 할 수 있다. 산업통상자원부장관 또는 시·도지사는 제1항 및 제3항에 따른 조사를 하는 경우에는 조사 7일 전까지 조사 일시, 조사 이유 및 조사 내용을 포함한 조사계획을 조사대상자에게 알려야 한다. 다만, 긴급한 경우나 사전에 알리면 증거인멸 등으로 조사목적을 달성할 수 없다고 인정하는 경우에는 그러하지 아니하다. 제1항 및 제3항에 따라 출입·조사하는 자는 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 하며, 조사 시 그 조사의 일시·목적 등을 기록한 서류를 관계인에게 내주어야 한다. 제1항에 따른 실태조사의 대상, 시기 등에 관하여 필요한 사항은 대통령령으로 정한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제30조(한국전기안전공사의 설립) 전기로 인한 재해를 예방하기 위하여 전기안전에 관한 조사·연구·기술개발 및 홍보업무와 전기설비에 대한 검사·점검업무를 수행하는 한국전기안전공사를 설립한다. 안전공사는 법인으로 한다. 안전공사는 주된 사업소의 소재지에서 설립등기를 함으로써 성립한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제31조(안전공사의 운영 등) 안전공사의 운영에 필요한 경비는 다음 각 호의 재원으로 충당한다. 제42조제1항제1호에 따른 검사 또는 같은 항 제2호에 따른 점검을 받으려는 자가 내는 수수료 「재난 및 안전관리 기본법」에 따른 재난관리책임기관이 재난예방을 위하여 부담하는 재난예방점검비용 등 「전기사업법」 제48조에 따른 전력산업기반기금에서의 출연금 차입금 및 그 밖의 수입 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제32조(임원) 안전공사의 임원은 사장 1명, 이사 8명 이내와 감사 1명으로 한다. 사장은 안전공사를 대표하고, 그 사무를 총괄한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제33조(사업) 안전공사는 다음 각 호의 사업을 한다. 전기안전에 관한 조사 및 연구 전기안전에 관한 기술개발 및 보급 전기안전에 관한 전문교육 및 정보의 제공 전기안전에 관한 홍보 전기설비에 대한 검사·점검 및 기술지원 제40조제3항에 따른 전기사고의 원인·경위 등의 조사 제41조제3항에 따른 전기재해에 관한 통계의 조사·작성·분석 및 관리 전기안전에 관한 국제기술협력 및 기술·용역의 수출 전기안전을 위하여 산업통상자원부장관 또는 시·도지사가 위탁하는 사업 전기설비의 안전진단과 그 밖에 전기안전관리를 위하여 필요한 사업 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제34조(다른 법률과의 관계) 안전공사에 관하여 이 법 및 「공공기관의 운영에 관한 법률」에 규정된 것을 제외하고는 「민법」 중 재단법인에 관한 규정을 준용한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제35조(감독) 산업통상자원부장관은 안전공사의 업무 중 다음 각 호의 어느 하나에 해당하는 사항에 관련되는 업무에 대하여 지도·감독한다. 제33조에 따른 사업의 수행에 관한 사항 토지·건물 등 안전공사의 주요 기본재산의 매각, 취득, 양도 또는 담보제공 그 밖에 다른 법령에서 정하는 사항 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제36조(유사명칭의 사용 금지) 이 법에 따른 안전공사가 아닌 자는 한국전기안전공사 또는 이와 유사한 명칭을 사용하지 못한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제37조(비밀 유지의 의무) 안전공사의 임직원이나 그 직에 있었던 사람은 직무와 관련하여 알게 된 비밀을 누설 또는 도용하거나 다른 사람이 이용하게 하여서는 아니 된다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제38조(전기안전종합정보시스템의 구축·운영 등) 산업통상자원부장관은 전기안전관리에 관한 정보를 체계적으로 관리하기 위하여 전기안전종합정보시스템을 구축·운영할 수 있다. 산업통상자원부장관은 전기안전종합정보시스템을 구축·운영하기 위하여 필요한 경우에는 관계 중앙행정기관의 장, 시·도지사, 시장·군수·구청장, 「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관의 장 및 전기 관련 협회의 장 등에게 필요한 자료의 제공을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 이에 따라야 한다. 제1항에 따른 전기안전종합정보시스템의 구축·운영에 필요한 사항은 대통령령으로 정한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제39조(보고) 산업통상자원부장관은 산업통상자원부령으로 정하는 바에 따라 전기설비의 검사·점검현황 등 전기안전에 관한 사항을 시·도지사, 시장·군수·구청장, 안전공사, 전기판매사업자 및 구역전기사업자로 하여금 보고하게 할 수 있다. 시·도지사는 산업통상자원부령으로 정하는 바에 따라 전기안전관리자의 선임 및 해임에 관한 사항을 전력기술인단체로 하여금 보고하게 할 수 있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제40조(중대한 사고의 통보·조사) 전기사업자 및 자가용전기설비의 소유자 또는 점유자는 그가 운용하는 전기설비로 인하여 산업통상자원부령으로 정하는 중대한 사고가 발생한 경우에는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관에게 통보하여야 한다. 「전기사업법」 제35조에 따른 한국전력거래소는 전력계통의 운영과 관련하여 산업통상자원부령으로 정하는 중대한 사고가 발생한 경우에는 산업통상자원부령으로 정하는 바에 따라 산업통상자원부장관에게 통보하여야 한다. 산업통상자원부장관은 전기사고의 재발방지를 위하여 필요하다고 인정하는 경우에는 다음 각 호의 자로 하여금 대통령령으로 정하는 전기사고의 원인·경위 등에 관한 조사를 하게 할 수 있다. 안전공사 산업통상자원부령으로 정하는 기술인력 및 장비 등을 갖춘 자 중 산업통상자원부장관이 지정한 자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제41조(전기재해통계의 작성) 산업통상자원부장관은 전기안전관리 정책을 효과적으로 수립·시행하기 위하여 대통령령으로 정하는 바에 따라 전기재해에 관한 통계를 작성·관리할 수 있다. 제1항에 따라 통계의 작성에 관하여 이 법에서 규정한 것 이외에는 「통계법」을 준용한다. 산업통상자원부장관은 안전공사 또는 전문성을 갖춘 기관을 지정하여 제1항에 따른 통계의 조사·작성·분석 및 관리에 관한 업무의 전부 또는 일부를 수행하게 할 수 있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제42조(수수료 등) 다음 각 호의 어느 하나에 해당하는 자는 산업통상자원부령으로 정하는 바에 따라 수수료를 내야 한다. 다음 각 호의 어느 하나에 해당하는 사람은 산업통상자원부령으로 정하는 바에 따라 교육비를 내야 한다. 제9조 및 제11조에 따른 검사를 받으려는 자 제13조에 따른 전기안전점검을 받으려는 자 제23조제2항에 따른 전기안전관리자의 선임신고증명서를 발급받으려는 자 제26조제2항에 따른 변경등록을 하려는 자(변경사항이 기술인력인 경우만 해당한다) 제25조제1항제1호에 따라 전기안전관리자의 안전관리교육을 받으려는 사람 제25조제1항제2호에 따라 시공관리책임자의 안전시공교육을 받으려는 사람 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제43조(권한의 위임·위탁) 이 법에 따른 산업통상자원부장관의 권한은 그 일부를 대통령령으로 정하는 바에 따라 그 소속 기관 또는 시·도지사에게 위임할 수 있다. 이 법에 따른 산업통상자원부장관 또는 시·도지사의 권한 중 다음 각 호의 업무의 전부 또는 일부를 대통령령으로 정하는 바에 따라 안전공사에 위탁할 수 있다. 이 법에 따른 산업통상자원부장관 또는 시·도지사의 권한 중 다음 제1호 및 제3호의 업무는 대통령령으로 정하는 바에 따라 전력기술인단체에, 제2호의 업무는 대통령령으로 정하는 바에 따라 「전기공사업법」 제25조제1항에 따른 공사업자단체(이하 "공사업자단체"라 한다)에 위탁할 수 있다. 제8조제2항에 따른 자가용전기설비의 공사계획의 신고 및 변경신고의 접수 제9조 및 제11조에 따른 전기설비의 검사 제10조에 따른 자가용전기설비의 임시사용의 허용 제38조에 따른 전기안전종합정보시스템의 구축·운영 제25조제1항제1호에 따른 안전관리교육 제25조제1항제2호에 따른 안전시공교육 제26조제2항에 따른 전기안전관리업무를 전문으로 하는 자, 시설물관리를 전문으로 하는 자 및 전기안전관리대행사업자의 변경등록(변경사항이 기술인력인 경우만 해당한다) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제44조(관리·감독) 산업통상자원부장관 또는 시·도지사는 전력기술인단체 또는 공사업자단체의 수탁사무의 처리가 위법하거나 부당하다고 판단되는 경우 등 필요하다고 인정될 때에는 위탁사무에 관하여 필요한 지시를 하거나 시정을 명할 수 있다. 산업통상자원부장관은 전력기술인단체 또는 공사업자단체가 제1항에 따른 명령을 위반한 경우 위탁을 취소하거나 6개월 이내의 기간을 정하여 업무정지를 명할 수 있다. 산업통상자원부장관은 전력기술인단체 또는 공사업자단체가 제2항에 해당하는 경우로서 그 업무정지가 전기안전관리자 또는 시공관리책임자에게 심한 불편을 주거나 그 밖에 공공의 이익을 해칠 우려가 있는 경우에는 업무정지 명령을 갈음하여 5천만원 이하의 과징금을 부과할 수 있다. 제2항에 따른 위반행위별 처분기준과 제3항에 따른 과징금의 부과기준은 산업통상자원부령으로 정한다. 산업통상자원부장관은 제3항에 따른 과징금을 내야할 자가 납부기한까지 이를 내지 아니하면 국세 체납처분의 예에 따라 징수할 수 있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제45조(벌칙 적용에서 공무원 의제) 산업통상자원부장관 또는 시·도지사가 제43조제2항 및 제3항에 따라 위탁한 업무에 종사하는 안전공사, 단체의 임직원은 「형법」 제129조부터 제132조까지의 규정을 적용할 때에는 공무원으로 본다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제46조(벌칙) 다음 각 호의 어느 하나에 해당하는 자는 2년 이하의 징역 또는 2천만원 이하의 벌금에 처하거나 이를 병과할 수 있다. 제16조제3항 또는 제4항에 따른 명령을 정당한 사유 없이 위반한 자 제37조를 위반하여 직무와 관련하여 알게 된 비밀을 누설 또는 도용하거나 다른 사람으로 하여금 이용하게 한 자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제47조(벌칙) 다음 각 호의 어느 하나에 해당하는 자는 1년 이하의 징역 또는 1천만원 이하의 벌금에 처한다. 제8조제1항을 위반하여 전기설비의 설치공사 또는 변경공사를 한 자 제22조제3항 각 호의 어느 하나에 해당하지 아니하는 자로서 전기안전관리업무를 대행한 자 제26조제1항제1호부터 제3호까지의 규정에 따른 등록을 하지 아니하거나 같은 조 제2항에 따른 변경등록을 하지 아니하고 전기안전관리업무를 수행한 자 거짓이나 그 밖의 부정한 방법으로 제26조제1항제1호부터 제3호까지의 규정에 따른 등록을 하거나 같은 조 제2항에 따른 변경등록을 한 자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제48조(벌칙) 제22조제1항부터 제4항까지의 규정을 위반하여 전기안전관리자를 선임하지 아니한 자는 500만원 이하의 벌금에 처한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제49조(벌칙) 다음 각 호의 어느 하나에 해당하는 자는 300만원 이하의 벌금에 처한다. 제9조에 따른 검사에 합격하지 아니하고 전기설비를 사용한 자. 다만, 제10조에 따른 임시사용의 통지를 받은 경우는 제외한다. 제20조(전기사업용전기설비 및 자가용전기설비의 소유자 또는 점유자만 해당한다)에 따른 명령을 위반한 자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제50조(벌칙) 제11조에 따른 검사를 거부·방해 또는 기피한 자는 100만원 이하의 벌금에 처한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제51조(양벌규정) 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제46조부터 제50조까지의 어느 하나에 해당하는 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 해당 조문의 벌금형을 과(科)한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리 하지 아니한 경우에는 그러하지 아니하다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제52조(과태료) 다음 각 호의 어느 하나에 해당하는 자에게는 300만원 이하의 과태료를 부과한다. 다음 각 호의 어느 하나에 해당하는 자에게는 100만원 이하의 과태료를 부과한다. 제1항 및 제2항에 따른 과태료는 대통령령으로 정하는 바에 따라 산업통상자원부장관, 시·도지사 또는 시장·군수·구청장이 부과·징수한다. 제12조제5항(제14조제2항에서 준용하는 경우를 포함한다)에 따른 시장·군수·구청장 또는 안전공사의 개선명령을 위반한 자 제20조에 따라 일반용전기설비의 소유자 또는 점유자에게 내린 명령을 위반한 자 제22조제5항을 위반하여 전기안전관리자의 대행자를 지정하지 아니한 자 제22조제6항에 따른 전기안전관리 대행업무의 범위 및 업무량을 넘거나 최소점검횟수에 미달하여 전기안전관리업무를 대행한 자 제24조제3항에 따른 기록을 하지 아니하거나 거짓으로 기록한 자 또는 기록을 보존·제출하지 아니한 자 제25조제3항을 위반하여 전기안전교육을 수료하지 않은 사람에게 교육수료증을 발급한 자 제26조제2항의 변경등록 중 기술인력 변경등록을 거짓이나 부정한 방법으로 처리한 자 제29조제3항에 따른 자료의 제출명령을 거부하거나, 장부·서류나 그 밖의 자료 또는 물건의 조사를 거부·방해 또는 기피한 자 제36조를 위반하여 한국전기안전공사 또는 이와 유사한 명칭을 사용한 자 제40조제1항 또는 제2항에 따른 통보를 하지 아니한 자 제8조제2항을 위반하여 전기설비의 설치공사 또는 변경공사를 한 자 제12조제1항 및 제14조제1항에 따른 점검(주거용 시설물에 설치된 전기설비에 대한 점검은 제외한다)을 거부·방해 또는 기피한 자 제12조제4항(제14조제2항에서 준용하는 경우를 포함한다) 또는 제13조제3항에 따른 기록을 하지 아니하거나 거짓 기록을 한 자 또는 기록을 보존하지 아니한 자 제22조제8항을 위반하여 안전관리에 필요한 장비를 보유하지 아니한 자 제23조제1항에 따른 전기안전관리자의 선임 또는 해임 신고를 하지 아니하거나 거짓으로 선임 신고를 한 자 제24조제4항을 위반하여 필요한 조치를 요구하지 아니한 전기안전관리자 제24조제5항을 위반하여 전기안전관리자의 조치요구를 따르지 않거나, 조치요구를 이유로 전기안전관리자에게 불이익한 처우를 한 전기사업자 및 자가용전기설비의 소유자 또는 점유자 제25조제1항제1호를 위반하여 안전관리교육을 받지 아니한 사람 제25조제1항제2호를 위반하여 안전시공교육을 받지 아니한 사람 제25조제4항을 위반하여 전기안전교육을 받지 아니한 사람을 해임하지 아니한 자 제25조제5항을 위반하여 안전시공교육을 받지 아니한 사람의 시공관리책임자 지정을 취소하지 아니한 자 제26조제1항제4호에 따른 등록을 하지 아니하거나 같은 조 제2항에 따른 변경등록을 하지 아니하고 전기안전관리업무를 수행한 자 </t>
   </si>
 </sst>
 </file>
@@ -530,275 +689,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
